--- a/List of Pokemon 3D Models.xlsx
+++ b/List of Pokemon 3D Models.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabio\Dropbox\Public\Pokemon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabio\Documents\GitHub\PoGo-3D-Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="21600" windowHeight="10040"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="21600" windowHeight="10040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="197">
   <si>
     <t>Mew</t>
   </si>
@@ -673,30 +673,6 @@
   <si>
     <t>---</t>
   </si>
-  <si>
-    <t>Mod</t>
-  </si>
-  <si>
-    <t>Tex</t>
-  </si>
-  <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>Ori</t>
-  </si>
-  <si>
-    <t>Rig</t>
-  </si>
-  <si>
-    <t>Spl</t>
-  </si>
-  <si>
-    <t>Ani</t>
-  </si>
-  <si>
-    <t>Iss</t>
-  </si>
 </sst>
 </file>
 
@@ -801,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -836,22 +812,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -920,22 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -943,6 +893,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,33 +974,6 @@
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1145,6 +1080,33 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -9060,19 +9022,19 @@
     <sortCondition ref="B2:B153"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" name="Pic" dataDxfId="11"/>
-    <tableColumn id="2" name="Nr." dataDxfId="9"/>
-    <tableColumn id="3" name="Name" dataDxfId="10"/>
-    <tableColumn id="10" name="Hight [m]" dataDxfId="21"/>
-    <tableColumn id="9" name="Modeled" dataDxfId="20"/>
-    <tableColumn id="13" name="Q" dataDxfId="19"/>
-    <tableColumn id="8" name="Textured" dataDxfId="18"/>
-    <tableColumn id="11" name="Split" dataDxfId="17"/>
-    <tableColumn id="4" name="Rigged" dataDxfId="16"/>
-    <tableColumn id="5" name="Animated" dataDxfId="15"/>
-    <tableColumn id="12" name="Exported" dataDxfId="14"/>
-    <tableColumn id="7" name="Origin" dataDxfId="13"/>
-    <tableColumn id="6" name="Issues" dataDxfId="12"/>
+    <tableColumn id="1" name="Pic" dataDxfId="21"/>
+    <tableColumn id="2" name="Nr." dataDxfId="20"/>
+    <tableColumn id="3" name="Name" dataDxfId="19"/>
+    <tableColumn id="10" name="Hight [m]" dataDxfId="18"/>
+    <tableColumn id="9" name="Modeled" dataDxfId="17"/>
+    <tableColumn id="13" name="Q" dataDxfId="16"/>
+    <tableColumn id="8" name="Textured" dataDxfId="15"/>
+    <tableColumn id="11" name="Split" dataDxfId="14"/>
+    <tableColumn id="4" name="Rigged" dataDxfId="13"/>
+    <tableColumn id="5" name="Animated" dataDxfId="12"/>
+    <tableColumn id="12" name="Exported" dataDxfId="11"/>
+    <tableColumn id="7" name="Origin" dataDxfId="10"/>
+    <tableColumn id="6" name="Issues" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9397,8 +9359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M115" sqref="M115"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9421,21 +9383,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="5" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="2:14" s="5" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="16"/>
@@ -9452,19 +9414,19 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
     </row>
@@ -9484,154 +9446,154 @@
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
     <row r="8" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
     <row r="9" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
     <row r="10" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
     <row r="12" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
@@ -9651,10 +9613,10 @@
       <c r="N13" s="17"/>
     </row>
     <row r="14" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="14"/>
       <c r="E14" s="18" t="s">
         <v>184</v>
@@ -9715,7 +9677,7 @@
       </c>
       <c r="E16" s="20">
         <f>COUNTIF(Table2[Modeled],"in Progress")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="20">
         <f>COUNTIF(Table2[Textured],"in Progress")</f>
@@ -9747,7 +9709,7 @@
       </c>
       <c r="E17" s="20">
         <f>COUNTIF(Table2[Modeled],"No")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="20">
         <f>COUNTIF(Table2[Textured],"No")</f>
@@ -9786,10 +9748,10 @@
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="25" t="s">
         <v>168</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -14440,7 +14402,7 @@
         <v>1.3</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="2" t="s">
@@ -15713,11 +15675,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D8:L8"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B3:L3"/>
@@ -15732,6 +15689,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:L170 D20:F170 B20:B170">
     <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
@@ -15867,10 +15829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K153"/>
+  <dimension ref="B1:J153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15883,74 +15845,67 @@
     <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>195</v>
       </c>
       <c r="C1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D1" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>196</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3">
         <f>Sheet1!C20</f>
         <v>1</v>
@@ -15987,12 +15942,8 @@
         <f>IF(Sheet1!M20="models-resource.com",1,IF(Sheet1!M20="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K3" t="str">
-        <f>Sheet1!N20</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4">
         <f>Sheet1!C21</f>
         <v>2</v>
@@ -16029,12 +15980,8 @@
         <f>IF(Sheet1!M21="models-resource.com",1,IF(Sheet1!M21="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K4" t="str">
-        <f>Sheet1!N21</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5">
         <f>Sheet1!C22</f>
         <v>3</v>
@@ -16071,12 +16018,8 @@
         <f>IF(Sheet1!M22="models-resource.com",1,IF(Sheet1!M22="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K5" t="str">
-        <f>Sheet1!N22</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6">
         <f>Sheet1!C23</f>
         <v>4</v>
@@ -16113,12 +16056,8 @@
         <f>IF(Sheet1!M23="models-resource.com",1,IF(Sheet1!M23="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K6" t="str">
-        <f>Sheet1!N23</f>
-        <v>(m) Flametexture of the tail need to be done better</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7">
         <f>Sheet1!C24</f>
         <v>5</v>
@@ -16155,12 +16094,8 @@
         <f>IF(Sheet1!M24="models-resource.com",1,IF(Sheet1!M24="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K7" t="str">
-        <f>Sheet1!N24</f>
-        <v>(m) Flametexture of the tail need to be done better</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8">
         <f>Sheet1!C25</f>
         <v>6</v>
@@ -16197,12 +16132,8 @@
         <f>IF(Sheet1!M25="models-resource.com",1,IF(Sheet1!M25="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K8" t="str">
-        <f>Sheet1!N25</f>
-        <v>(m) Flametexture of the tail need to be done better</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9">
         <f>Sheet1!C26</f>
         <v>7</v>
@@ -16239,12 +16170,8 @@
         <f>IF(Sheet1!M26="models-resource.com",1,IF(Sheet1!M26="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K9" t="str">
-        <f>Sheet1!N26</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10">
         <f>Sheet1!C27</f>
         <v>8</v>
@@ -16281,12 +16208,8 @@
         <f>IF(Sheet1!M27="models-resource.com",1,IF(Sheet1!M27="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K10" t="str">
-        <f>Sheet1!N27</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11">
         <f>Sheet1!C28</f>
         <v>9</v>
@@ -16323,12 +16246,8 @@
         <f>IF(Sheet1!M28="models-resource.com",1,IF(Sheet1!M28="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K11" t="str">
-        <f>Sheet1!N28</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12">
         <f>Sheet1!C29</f>
         <v>10</v>
@@ -16365,12 +16284,8 @@
         <f>IF(Sheet1!M29="models-resource.com",1,IF(Sheet1!M29="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K12" t="str">
-        <f>Sheet1!N29</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13">
         <f>Sheet1!C30</f>
         <v>11</v>
@@ -16407,12 +16322,8 @@
         <f>IF(Sheet1!M30="models-resource.com",1,IF(Sheet1!M30="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K13" t="str">
-        <f>Sheet1!N30</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14">
         <f>Sheet1!C31</f>
         <v>12</v>
@@ -16449,12 +16360,8 @@
         <f>IF(Sheet1!M31="models-resource.com",1,IF(Sheet1!M31="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K14" t="str">
-        <f>Sheet1!N31</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15">
         <f>Sheet1!C32</f>
         <v>13</v>
@@ -16491,12 +16398,8 @@
         <f>IF(Sheet1!M32="models-resource.com",1,IF(Sheet1!M32="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K15" t="str">
-        <f>Sheet1!N32</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16">
         <f>Sheet1!C33</f>
         <v>14</v>
@@ -16533,12 +16436,8 @@
         <f>IF(Sheet1!M33="models-resource.com",1,IF(Sheet1!M33="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K16" t="str">
-        <f>Sheet1!N33</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17">
         <f>Sheet1!C34</f>
         <v>15</v>
@@ -16575,12 +16474,8 @@
         <f>IF(Sheet1!M34="models-resource.com",1,IF(Sheet1!M34="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K17" t="str">
-        <f>Sheet1!N34</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18">
         <f>Sheet1!C35</f>
         <v>16</v>
@@ -16617,12 +16512,8 @@
         <f>IF(Sheet1!M35="models-resource.com",1,IF(Sheet1!M35="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K18" t="str">
-        <f>Sheet1!N35</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19">
         <f>Sheet1!C36</f>
         <v>17</v>
@@ -16659,12 +16550,8 @@
         <f>IF(Sheet1!M36="models-resource.com",1,IF(Sheet1!M36="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K19" t="str">
-        <f>Sheet1!N36</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20">
         <f>Sheet1!C37</f>
         <v>18</v>
@@ -16701,12 +16588,8 @@
         <f>IF(Sheet1!M37="models-resource.com",1,IF(Sheet1!M37="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K20" t="str">
-        <f>Sheet1!N37</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21">
         <f>Sheet1!C38</f>
         <v>19</v>
@@ -16743,12 +16626,8 @@
         <f>IF(Sheet1!M38="models-resource.com",1,IF(Sheet1!M38="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K21" t="str">
-        <f>Sheet1!N38</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22">
         <f>Sheet1!C39</f>
         <v>20</v>
@@ -16785,12 +16664,8 @@
         <f>IF(Sheet1!M39="models-resource.com",1,IF(Sheet1!M39="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K22" t="str">
-        <f>Sheet1!N39</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23">
         <f>Sheet1!C40</f>
         <v>21</v>
@@ -16827,12 +16702,8 @@
         <f>IF(Sheet1!M40="models-resource.com",1,IF(Sheet1!M40="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K23" t="str">
-        <f>Sheet1!N40</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24">
         <f>Sheet1!C41</f>
         <v>22</v>
@@ -16869,12 +16740,8 @@
         <f>IF(Sheet1!M41="models-resource.com",1,IF(Sheet1!M41="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K24" t="str">
-        <f>Sheet1!N41</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25">
         <f>Sheet1!C42</f>
         <v>23</v>
@@ -16911,12 +16778,8 @@
         <f>IF(Sheet1!M42="models-resource.com",1,IF(Sheet1!M42="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K25" t="str">
-        <f>Sheet1!N42</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26">
         <f>Sheet1!C43</f>
         <v>24</v>
@@ -16953,12 +16816,8 @@
         <f>IF(Sheet1!M43="models-resource.com",1,IF(Sheet1!M43="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K26" t="str">
-        <f>Sheet1!N43</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27">
         <f>Sheet1!C44</f>
         <v>25</v>
@@ -16995,12 +16854,8 @@
         <f>IF(Sheet1!M44="models-resource.com",1,IF(Sheet1!M44="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K27" t="str">
-        <f>Sheet1!N44</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28">
         <f>Sheet1!C45</f>
         <v>26</v>
@@ -17037,12 +16892,8 @@
         <f>IF(Sheet1!M45="models-resource.com",1,IF(Sheet1!M45="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K28" t="str">
-        <f>Sheet1!N45</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29">
         <f>Sheet1!C46</f>
         <v>27</v>
@@ -17079,12 +16930,8 @@
         <f>IF(Sheet1!M46="models-resource.com",1,IF(Sheet1!M46="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K29" t="str">
-        <f>Sheet1!N46</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30">
         <f>Sheet1!C47</f>
         <v>28</v>
@@ -17121,12 +16968,8 @@
         <f>IF(Sheet1!M47="models-resource.com",1,IF(Sheet1!M47="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K30" t="str">
-        <f>Sheet1!N47</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31">
         <f>Sheet1!C48</f>
         <v>29</v>
@@ -17163,12 +17006,8 @@
         <f>IF(Sheet1!M48="models-resource.com",1,IF(Sheet1!M48="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K31" t="str">
-        <f>Sheet1!N48</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32">
         <f>Sheet1!C49</f>
         <v>30</v>
@@ -17205,12 +17044,8 @@
         <f>IF(Sheet1!M49="models-resource.com",1,IF(Sheet1!M49="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K32" t="str">
-        <f>Sheet1!N49</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33">
         <f>Sheet1!C50</f>
         <v>31</v>
@@ -17247,12 +17082,8 @@
         <f>IF(Sheet1!M50="models-resource.com",1,IF(Sheet1!M50="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K33" t="str">
-        <f>Sheet1!N50</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34">
         <f>Sheet1!C51</f>
         <v>32</v>
@@ -17289,12 +17120,8 @@
         <f>IF(Sheet1!M51="models-resource.com",1,IF(Sheet1!M51="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K34" t="str">
-        <f>Sheet1!N51</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35">
         <f>Sheet1!C52</f>
         <v>33</v>
@@ -17331,12 +17158,8 @@
         <f>IF(Sheet1!M52="models-resource.com",1,IF(Sheet1!M52="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K35" t="str">
-        <f>Sheet1!N52</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36">
         <f>Sheet1!C53</f>
         <v>34</v>
@@ -17373,12 +17196,8 @@
         <f>IF(Sheet1!M53="models-resource.com",1,IF(Sheet1!M53="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K36" t="str">
-        <f>Sheet1!N53</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37">
         <f>Sheet1!C54</f>
         <v>35</v>
@@ -17415,12 +17234,8 @@
         <f>IF(Sheet1!M54="models-resource.com",1,IF(Sheet1!M54="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K37" t="str">
-        <f>Sheet1!N54</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38">
         <f>Sheet1!C55</f>
         <v>36</v>
@@ -17457,12 +17272,8 @@
         <f>IF(Sheet1!M55="models-resource.com",1,IF(Sheet1!M55="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K38" t="str">
-        <f>Sheet1!N55</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39">
         <f>Sheet1!C56</f>
         <v>37</v>
@@ -17499,12 +17310,8 @@
         <f>IF(Sheet1!M56="models-resource.com",1,IF(Sheet1!M56="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K39" t="str">
-        <f>Sheet1!N56</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40">
         <f>Sheet1!C57</f>
         <v>38</v>
@@ -17541,12 +17348,8 @@
         <f>IF(Sheet1!M57="models-resource.com",1,IF(Sheet1!M57="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K40" t="str">
-        <f>Sheet1!N57</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41">
         <f>Sheet1!C58</f>
         <v>39</v>
@@ -17583,12 +17386,8 @@
         <f>IF(Sheet1!M58="models-resource.com",1,IF(Sheet1!M58="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K41" t="str">
-        <f>Sheet1!N58</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42">
         <f>Sheet1!C59</f>
         <v>40</v>
@@ -17625,12 +17424,8 @@
         <f>IF(Sheet1!M59="models-resource.com",1,IF(Sheet1!M59="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K42" t="str">
-        <f>Sheet1!N59</f>
-        <v>(s) Bodytexture on 3 different sections</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43">
         <f>Sheet1!C60</f>
         <v>41</v>
@@ -17667,12 +17462,8 @@
         <f>IF(Sheet1!M60="models-resource.com",1,IF(Sheet1!M60="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K43" t="str">
-        <f>Sheet1!N60</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44">
         <f>Sheet1!C61</f>
         <v>42</v>
@@ -17709,12 +17500,8 @@
         <f>IF(Sheet1!M61="models-resource.com",1,IF(Sheet1!M61="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K44" t="str">
-        <f>Sheet1!N61</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45">
         <f>Sheet1!C62</f>
         <v>43</v>
@@ -17751,12 +17538,8 @@
         <f>IF(Sheet1!M62="models-resource.com",1,IF(Sheet1!M62="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K45" t="str">
-        <f>Sheet1!N62</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46">
         <f>Sheet1!C63</f>
         <v>44</v>
@@ -17793,12 +17576,8 @@
         <f>IF(Sheet1!M63="models-resource.com",1,IF(Sheet1!M63="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K46" t="str">
-        <f>Sheet1!N63</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47">
         <f>Sheet1!C64</f>
         <v>45</v>
@@ -17835,12 +17614,8 @@
         <f>IF(Sheet1!M64="models-resource.com",1,IF(Sheet1!M64="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K47" t="str">
-        <f>Sheet1!N64</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48">
         <f>Sheet1!C65</f>
         <v>46</v>
@@ -17877,12 +17652,8 @@
         <f>IF(Sheet1!M65="models-resource.com",1,IF(Sheet1!M65="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K48" t="str">
-        <f>Sheet1!N65</f>
-        <v>(s) Eyedots need to be integrated in bodytexture</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49">
         <f>Sheet1!C66</f>
         <v>47</v>
@@ -17919,12 +17690,8 @@
         <f>IF(Sheet1!M66="models-resource.com",1,IF(Sheet1!M66="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K49" t="str">
-        <f>Sheet1!N66</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50">
         <f>Sheet1!C67</f>
         <v>48</v>
@@ -17961,12 +17728,8 @@
         <f>IF(Sheet1!M67="models-resource.com",1,IF(Sheet1!M67="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K50" t="str">
-        <f>Sheet1!N67</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51">
         <f>Sheet1!C68</f>
         <v>49</v>
@@ -18003,12 +17766,8 @@
         <f>IF(Sheet1!M68="models-resource.com",1,IF(Sheet1!M68="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K51" t="str">
-        <f>Sheet1!N68</f>
-        <v>(m) Textureproblems with Wings and Eyes</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52">
         <f>Sheet1!C69</f>
         <v>50</v>
@@ -18045,12 +17804,8 @@
         <f>IF(Sheet1!M69="models-resource.com",1,IF(Sheet1!M69="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K52" t="str">
-        <f>Sheet1!N69</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53">
         <f>Sheet1!C70</f>
         <v>51</v>
@@ -18087,12 +17842,8 @@
         <f>IF(Sheet1!M70="models-resource.com",1,IF(Sheet1!M70="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K53" t="str">
-        <f>Sheet1!N70</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54">
         <f>Sheet1!C71</f>
         <v>52</v>
@@ -18129,12 +17880,8 @@
         <f>IF(Sheet1!M71="models-resource.com",1,IF(Sheet1!M71="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K54" t="str">
-        <f>Sheet1!N71</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55">
         <f>Sheet1!C72</f>
         <v>53</v>
@@ -18171,12 +17918,8 @@
         <f>IF(Sheet1!M72="models-resource.com",1,IF(Sheet1!M72="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K55" t="str">
-        <f>Sheet1!N72</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56">
         <f>Sheet1!C73</f>
         <v>54</v>
@@ -18213,12 +17956,8 @@
         <f>IF(Sheet1!M73="models-resource.com",1,IF(Sheet1!M73="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K56" t="str">
-        <f>Sheet1!N73</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57">
         <f>Sheet1!C74</f>
         <v>55</v>
@@ -18255,12 +17994,8 @@
         <f>IF(Sheet1!M74="models-resource.com",1,IF(Sheet1!M74="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K57" t="str">
-        <f>Sheet1!N74</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58">
         <f>Sheet1!C75</f>
         <v>56</v>
@@ -18297,12 +18032,8 @@
         <f>IF(Sheet1!M75="models-resource.com",1,IF(Sheet1!M75="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K58" t="str">
-        <f>Sheet1!N75</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59">
         <f>Sheet1!C76</f>
         <v>57</v>
@@ -18339,12 +18070,8 @@
         <f>IF(Sheet1!M76="models-resource.com",1,IF(Sheet1!M76="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K59" t="str">
-        <f>Sheet1!N76</f>
-        <v>(s) Bodytexture on 4 different sections</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60">
         <f>Sheet1!C77</f>
         <v>58</v>
@@ -18381,12 +18108,8 @@
         <f>IF(Sheet1!M77="models-resource.com",1,IF(Sheet1!M77="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K60" t="str">
-        <f>Sheet1!N77</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61">
         <f>Sheet1!C78</f>
         <v>59</v>
@@ -18423,12 +18146,8 @@
         <f>IF(Sheet1!M78="models-resource.com",1,IF(Sheet1!M78="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K61" t="str">
-        <f>Sheet1!N78</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62">
         <f>Sheet1!C79</f>
         <v>60</v>
@@ -18465,12 +18184,8 @@
         <f>IF(Sheet1!M79="models-resource.com",1,IF(Sheet1!M79="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K62" t="str">
-        <f>Sheet1!N79</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63">
         <f>Sheet1!C80</f>
         <v>61</v>
@@ -18507,12 +18222,8 @@
         <f>IF(Sheet1!M80="models-resource.com",1,IF(Sheet1!M80="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K63" t="str">
-        <f>Sheet1!N80</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64">
         <f>Sheet1!C81</f>
         <v>62</v>
@@ -18549,12 +18260,8 @@
         <f>IF(Sheet1!M81="models-resource.com",1,IF(Sheet1!M81="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K64" t="str">
-        <f>Sheet1!N81</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65">
         <f>Sheet1!C82</f>
         <v>63</v>
@@ -18591,12 +18298,8 @@
         <f>IF(Sheet1!M82="models-resource.com",1,IF(Sheet1!M82="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K65" t="str">
-        <f>Sheet1!N82</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66">
         <f>Sheet1!C83</f>
         <v>64</v>
@@ -18633,12 +18336,8 @@
         <f>IF(Sheet1!M83="models-resource.com",1,IF(Sheet1!M83="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K66" t="str">
-        <f>Sheet1!N83</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67">
         <f>Sheet1!C84</f>
         <v>65</v>
@@ -18675,12 +18374,8 @@
         <f>IF(Sheet1!M84="models-resource.com",1,IF(Sheet1!M84="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K67" t="str">
-        <f>Sheet1!N84</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68">
         <f>Sheet1!C85</f>
         <v>66</v>
@@ -18717,12 +18412,8 @@
         <f>IF(Sheet1!M85="models-resource.com",1,IF(Sheet1!M85="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K68" t="str">
-        <f>Sheet1!N85</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69">
         <f>Sheet1!C86</f>
         <v>67</v>
@@ -18759,12 +18450,8 @@
         <f>IF(Sheet1!M86="models-resource.com",1,IF(Sheet1!M86="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K69" t="str">
-        <f>Sheet1!N86</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70">
         <f>Sheet1!C87</f>
         <v>68</v>
@@ -18801,12 +18488,8 @@
         <f>IF(Sheet1!M87="models-resource.com",1,IF(Sheet1!M87="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K70" t="str">
-        <f>Sheet1!N87</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71">
         <f>Sheet1!C88</f>
         <v>69</v>
@@ -18843,12 +18526,8 @@
         <f>IF(Sheet1!M88="models-resource.com",1,IF(Sheet1!M88="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K71" t="str">
-        <f>Sheet1!N88</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72">
         <f>Sheet1!C89</f>
         <v>70</v>
@@ -18885,12 +18564,8 @@
         <f>IF(Sheet1!M89="models-resource.com",1,IF(Sheet1!M89="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K72" t="str">
-        <f>Sheet1!N89</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73">
         <f>Sheet1!C90</f>
         <v>71</v>
@@ -18927,12 +18602,8 @@
         <f>IF(Sheet1!M90="models-resource.com",1,IF(Sheet1!M90="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K73" t="str">
-        <f>Sheet1!N90</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74">
         <f>Sheet1!C91</f>
         <v>72</v>
@@ -18969,12 +18640,8 @@
         <f>IF(Sheet1!M91="models-resource.com",1,IF(Sheet1!M91="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K74" t="str">
-        <f>Sheet1!N91</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75">
         <f>Sheet1!C92</f>
         <v>73</v>
@@ -19011,12 +18678,8 @@
         <f>IF(Sheet1!M92="models-resource.com",1,IF(Sheet1!M92="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K75" t="str">
-        <f>Sheet1!N92</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76">
         <f>Sheet1!C93</f>
         <v>74</v>
@@ -19053,12 +18716,8 @@
         <f>IF(Sheet1!M93="models-resource.com",1,IF(Sheet1!M93="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K76" t="str">
-        <f>Sheet1!N93</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77">
         <f>Sheet1!C94</f>
         <v>75</v>
@@ -19095,12 +18754,8 @@
         <f>IF(Sheet1!M94="models-resource.com",1,IF(Sheet1!M94="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K77" t="str">
-        <f>Sheet1!N94</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78">
         <f>Sheet1!C95</f>
         <v>76</v>
@@ -19137,12 +18792,8 @@
         <f>IF(Sheet1!M95="models-resource.com",1,IF(Sheet1!M95="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K78" t="str">
-        <f>Sheet1!N95</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79">
         <f>Sheet1!C96</f>
         <v>77</v>
@@ -19179,12 +18830,8 @@
         <f>IF(Sheet1!M96="models-resource.com",1,IF(Sheet1!M96="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K79" t="str">
-        <f>Sheet1!N96</f>
-        <v>(m) Flametexture need to be done better and UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80">
         <f>Sheet1!C97</f>
         <v>78</v>
@@ -19221,12 +18868,8 @@
         <f>IF(Sheet1!M97="models-resource.com",1,IF(Sheet1!M97="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K80" t="str">
-        <f>Sheet1!N97</f>
-        <v>(m) Flames need to be added and UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81">
         <f>Sheet1!C98</f>
         <v>79</v>
@@ -19263,12 +18906,8 @@
         <f>IF(Sheet1!M98="models-resource.com",1,IF(Sheet1!M98="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K81" t="str">
-        <f>Sheet1!N98</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82">
         <f>Sheet1!C99</f>
         <v>80</v>
@@ -19305,12 +18944,8 @@
         <f>IF(Sheet1!M99="models-resource.com",1,IF(Sheet1!M99="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K82" t="str">
-        <f>Sheet1!N99</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83">
         <f>Sheet1!C100</f>
         <v>81</v>
@@ -19347,12 +18982,8 @@
         <f>IF(Sheet1!M100="models-resource.com",1,IF(Sheet1!M100="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K83" t="str">
-        <f>Sheet1!N100</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84">
         <f>Sheet1!C101</f>
         <v>82</v>
@@ -19389,12 +19020,8 @@
         <f>IF(Sheet1!M101="models-resource.com",1,IF(Sheet1!M101="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K84" t="str">
-        <f>Sheet1!N101</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85">
         <f>Sheet1!C102</f>
         <v>83</v>
@@ -19431,12 +19058,8 @@
         <f>IF(Sheet1!M102="models-resource.com",1,IF(Sheet1!M102="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K85" t="str">
-        <f>Sheet1!N102</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86">
         <f>Sheet1!C103</f>
         <v>84</v>
@@ -19473,12 +19096,8 @@
         <f>IF(Sheet1!M103="models-resource.com",1,IF(Sheet1!M103="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K86" t="str">
-        <f>Sheet1!N103</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87">
         <f>Sheet1!C104</f>
         <v>85</v>
@@ -19515,12 +19134,8 @@
         <f>IF(Sheet1!M104="models-resource.com",1,IF(Sheet1!M104="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K87" t="str">
-        <f>Sheet1!N104</f>
-        <v>(m) UVW needs to be fixed, heads and tails not attached</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88">
         <f>Sheet1!C105</f>
         <v>86</v>
@@ -19557,12 +19172,8 @@
         <f>IF(Sheet1!M105="models-resource.com",1,IF(Sheet1!M105="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K88" t="str">
-        <f>Sheet1!N105</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89">
         <f>Sheet1!C106</f>
         <v>87</v>
@@ -19599,12 +19210,8 @@
         <f>IF(Sheet1!M106="models-resource.com",1,IF(Sheet1!M106="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K89" t="str">
-        <f>Sheet1!N106</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90">
         <f>Sheet1!C107</f>
         <v>88</v>
@@ -19641,12 +19248,8 @@
         <f>IF(Sheet1!M107="models-resource.com",1,IF(Sheet1!M107="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K90" t="str">
-        <f>Sheet1!N107</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91">
         <f>Sheet1!C108</f>
         <v>89</v>
@@ -19683,12 +19286,8 @@
         <f>IF(Sheet1!M108="models-resource.com",1,IF(Sheet1!M108="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K91" t="str">
-        <f>Sheet1!N108</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92">
         <f>Sheet1!C109</f>
         <v>90</v>
@@ -19725,12 +19324,8 @@
         <f>IF(Sheet1!M109="models-resource.com",1,IF(Sheet1!M109="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K92" t="str">
-        <f>Sheet1!N109</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93">
         <f>Sheet1!C110</f>
         <v>91</v>
@@ -19767,12 +19362,8 @@
         <f>IF(Sheet1!M110="models-resource.com",1,IF(Sheet1!M110="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K93" t="str">
-        <f>Sheet1!N110</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94">
         <f>Sheet1!C111</f>
         <v>92</v>
@@ -19809,12 +19400,8 @@
         <f>IF(Sheet1!M111="models-resource.com",1,IF(Sheet1!M111="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K94" t="str">
-        <f>Sheet1!N111</f>
-        <v>(m) UVW needs to be fixed and mist needs to be added</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95">
         <f>Sheet1!C112</f>
         <v>93</v>
@@ -19851,12 +19438,8 @@
         <f>IF(Sheet1!M112="models-resource.com",1,IF(Sheet1!M112="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K95" t="str">
-        <f>Sheet1!N112</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96">
         <f>Sheet1!C113</f>
         <v>94</v>
@@ -19893,12 +19476,8 @@
         <f>IF(Sheet1!M113="models-resource.com",1,IF(Sheet1!M113="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K96" t="str">
-        <f>Sheet1!N113</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97">
         <f>Sheet1!C114</f>
         <v>95</v>
@@ -19935,12 +19514,8 @@
         <f>IF(Sheet1!M114="models-resource.com",1,IF(Sheet1!M114="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K97" t="str">
-        <f>Sheet1!N114</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98">
         <f>Sheet1!C115</f>
         <v>96</v>
@@ -19977,12 +19552,8 @@
         <f>IF(Sheet1!M115="models-resource.com",1,IF(Sheet1!M115="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K98" t="str">
-        <f>Sheet1!N115</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99">
         <f>Sheet1!C116</f>
         <v>97</v>
@@ -20019,12 +19590,8 @@
         <f>IF(Sheet1!M116="models-resource.com",1,IF(Sheet1!M116="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K99" t="str">
-        <f>Sheet1!N116</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100">
         <f>Sheet1!C117</f>
         <v>98</v>
@@ -20061,12 +19628,8 @@
         <f>IF(Sheet1!M117="models-resource.com",1,IF(Sheet1!M117="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K100" t="str">
-        <f>Sheet1!N117</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101">
         <f>Sheet1!C118</f>
         <v>99</v>
@@ -20103,12 +19666,8 @@
         <f>IF(Sheet1!M118="models-resource.com",1,IF(Sheet1!M118="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K101" t="str">
-        <f>Sheet1!N118</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102">
         <f>Sheet1!C119</f>
         <v>100</v>
@@ -20145,12 +19704,8 @@
         <f>IF(Sheet1!M119="models-resource.com",1,IF(Sheet1!M119="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K102" t="str">
-        <f>Sheet1!N119</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103">
         <f>Sheet1!C120</f>
         <v>101</v>
@@ -20187,12 +19742,8 @@
         <f>IF(Sheet1!M120="models-resource.com",1,IF(Sheet1!M120="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K103" t="str">
-        <f>Sheet1!N120</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104">
         <f>Sheet1!C121</f>
         <v>102</v>
@@ -20229,12 +19780,8 @@
         <f>IF(Sheet1!M121="models-resource.com",1,IF(Sheet1!M121="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K104" t="str">
-        <f>Sheet1!N121</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105">
         <f>Sheet1!C122</f>
         <v>103</v>
@@ -20271,12 +19818,8 @@
         <f>IF(Sheet1!M122="models-resource.com",1,IF(Sheet1!M122="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K105" t="str">
-        <f>Sheet1!N122</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106">
         <f>Sheet1!C123</f>
         <v>104</v>
@@ -20313,12 +19856,8 @@
         <f>IF(Sheet1!M123="models-resource.com",1,IF(Sheet1!M123="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K106" t="str">
-        <f>Sheet1!N123</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107">
         <f>Sheet1!C124</f>
         <v>105</v>
@@ -20355,12 +19894,8 @@
         <f>IF(Sheet1!M124="models-resource.com",1,IF(Sheet1!M124="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K107" t="str">
-        <f>Sheet1!N124</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108">
         <f>Sheet1!C125</f>
         <v>106</v>
@@ -20397,12 +19932,8 @@
         <f>IF(Sheet1!M125="models-resource.com",1,IF(Sheet1!M125="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K108" t="str">
-        <f>Sheet1!N125</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109">
         <f>Sheet1!C126</f>
         <v>107</v>
@@ -20439,12 +19970,8 @@
         <f>IF(Sheet1!M126="models-resource.com",1,IF(Sheet1!M126="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K109" t="str">
-        <f>Sheet1!N126</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110">
         <f>Sheet1!C127</f>
         <v>108</v>
@@ -20481,12 +20008,8 @@
         <f>IF(Sheet1!M127="models-resource.com",1,IF(Sheet1!M127="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K110" t="str">
-        <f>Sheet1!N127</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111">
         <f>Sheet1!C128</f>
         <v>109</v>
@@ -20523,12 +20046,8 @@
         <f>IF(Sheet1!M128="models-resource.com",1,IF(Sheet1!M128="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K111" t="str">
-        <f>Sheet1!N128</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112">
         <f>Sheet1!C129</f>
         <v>110</v>
@@ -20565,12 +20084,8 @@
         <f>IF(Sheet1!M129="models-resource.com",1,IF(Sheet1!M129="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K112" t="str">
-        <f>Sheet1!N129</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113">
         <f>Sheet1!C130</f>
         <v>111</v>
@@ -20607,12 +20122,8 @@
         <f>IF(Sheet1!M130="models-resource.com",1,IF(Sheet1!M130="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K113" t="str">
-        <f>Sheet1!N130</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114">
         <f>Sheet1!C131</f>
         <v>112</v>
@@ -20649,12 +20160,8 @@
         <f>IF(Sheet1!M131="models-resource.com",1,IF(Sheet1!M131="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K114" t="str">
-        <f>Sheet1!N131</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115">
         <f>Sheet1!C132</f>
         <v>113</v>
@@ -20691,12 +20198,8 @@
         <f>IF(Sheet1!M132="models-resource.com",1,IF(Sheet1!M132="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K115" t="str">
-        <f>Sheet1!N132</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116">
         <f>Sheet1!C133</f>
         <v>114</v>
@@ -20733,12 +20236,8 @@
         <f>IF(Sheet1!M133="models-resource.com",1,IF(Sheet1!M133="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K116" t="str">
-        <f>Sheet1!N133</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117">
         <f>Sheet1!C134</f>
         <v>115</v>
@@ -20775,12 +20274,8 @@
         <f>IF(Sheet1!M134="models-resource.com",1,IF(Sheet1!M134="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K117" t="str">
-        <f>Sheet1!N134</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118">
         <f>Sheet1!C135</f>
         <v>116</v>
@@ -20817,12 +20312,8 @@
         <f>IF(Sheet1!M135="models-resource.com",1,IF(Sheet1!M135="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K118" t="str">
-        <f>Sheet1!N135</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119">
         <f>Sheet1!C136</f>
         <v>117</v>
@@ -20859,12 +20350,8 @@
         <f>IF(Sheet1!M136="models-resource.com",1,IF(Sheet1!M136="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K119" t="str">
-        <f>Sheet1!N136</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120">
         <f>Sheet1!C137</f>
         <v>118</v>
@@ -20901,12 +20388,8 @@
         <f>IF(Sheet1!M137="models-resource.com",1,IF(Sheet1!M137="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K120" t="str">
-        <f>Sheet1!N137</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121">
         <f>Sheet1!C138</f>
         <v>119</v>
@@ -20917,7 +20400,7 @@
       </c>
       <c r="D121" t="str">
         <f>Sheet1!F138</f>
-        <v>No</v>
+        <v>in Progress</v>
       </c>
       <c r="E121" t="str">
         <f>Sheet1!H138</f>
@@ -20943,12 +20426,8 @@
         <f>IF(Sheet1!M138="models-resource.com",1,IF(Sheet1!M138="roestudios.co.uk",2,"-"))</f>
         <v>-</v>
       </c>
-      <c r="K121" t="str">
-        <f>Sheet1!N138</f>
-        <v>(h) Model needs to be done or found</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122">
         <f>Sheet1!C139</f>
         <v>120</v>
@@ -20985,12 +20464,8 @@
         <f>IF(Sheet1!M139="models-resource.com",1,IF(Sheet1!M139="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K122" t="str">
-        <f>Sheet1!N139</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123">
         <f>Sheet1!C140</f>
         <v>121</v>
@@ -21027,12 +20502,8 @@
         <f>IF(Sheet1!M140="models-resource.com",1,IF(Sheet1!M140="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K123" t="str">
-        <f>Sheet1!N140</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124">
         <f>Sheet1!C141</f>
         <v>122</v>
@@ -21069,12 +20540,8 @@
         <f>IF(Sheet1!M141="models-resource.com",1,IF(Sheet1!M141="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K124" t="str">
-        <f>Sheet1!N141</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125">
         <f>Sheet1!C142</f>
         <v>123</v>
@@ -21111,12 +20578,8 @@
         <f>IF(Sheet1!M142="models-resource.com",1,IF(Sheet1!M142="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K125" t="str">
-        <f>Sheet1!N142</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126">
         <f>Sheet1!C143</f>
         <v>124</v>
@@ -21153,12 +20616,8 @@
         <f>IF(Sheet1!M143="models-resource.com",1,IF(Sheet1!M143="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K126" t="str">
-        <f>Sheet1!N143</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127">
         <f>Sheet1!C144</f>
         <v>125</v>
@@ -21195,12 +20654,8 @@
         <f>IF(Sheet1!M144="models-resource.com",1,IF(Sheet1!M144="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K127" t="str">
-        <f>Sheet1!N144</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128">
         <f>Sheet1!C145</f>
         <v>126</v>
@@ -21237,12 +20692,8 @@
         <f>IF(Sheet1!M145="models-resource.com",1,IF(Sheet1!M145="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K128" t="str">
-        <f>Sheet1!N145</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129">
         <f>Sheet1!C146</f>
         <v>127</v>
@@ -21279,12 +20730,8 @@
         <f>IF(Sheet1!M146="models-resource.com",1,IF(Sheet1!M146="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K129" t="str">
-        <f>Sheet1!N146</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130">
         <f>Sheet1!C147</f>
         <v>128</v>
@@ -21321,12 +20768,8 @@
         <f>IF(Sheet1!M147="models-resource.com",1,IF(Sheet1!M147="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K130" t="str">
-        <f>Sheet1!N147</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131">
         <f>Sheet1!C148</f>
         <v>129</v>
@@ -21363,12 +20806,8 @@
         <f>IF(Sheet1!M148="models-resource.com",1,IF(Sheet1!M148="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K131" t="str">
-        <f>Sheet1!N148</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132">
         <f>Sheet1!C149</f>
         <v>130</v>
@@ -21405,12 +20844,8 @@
         <f>IF(Sheet1!M149="models-resource.com",1,IF(Sheet1!M149="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K132" t="str">
-        <f>Sheet1!N149</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133">
         <f>Sheet1!C150</f>
         <v>131</v>
@@ -21447,12 +20882,8 @@
         <f>IF(Sheet1!M150="models-resource.com",1,IF(Sheet1!M150="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K133" t="str">
-        <f>Sheet1!N150</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134">
         <f>Sheet1!C151</f>
         <v>132</v>
@@ -21489,12 +20920,8 @@
         <f>IF(Sheet1!M151="models-resource.com",1,IF(Sheet1!M151="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K134" t="str">
-        <f>Sheet1!N151</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135">
         <f>Sheet1!C152</f>
         <v>133</v>
@@ -21531,12 +20958,8 @@
         <f>IF(Sheet1!M152="models-resource.com",1,IF(Sheet1!M152="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K135" t="str">
-        <f>Sheet1!N152</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136">
         <f>Sheet1!C153</f>
         <v>134</v>
@@ -21573,12 +20996,8 @@
         <f>IF(Sheet1!M153="models-resource.com",1,IF(Sheet1!M153="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K136" t="str">
-        <f>Sheet1!N153</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137">
         <f>Sheet1!C154</f>
         <v>135</v>
@@ -21615,12 +21034,8 @@
         <f>IF(Sheet1!M154="models-resource.com",1,IF(Sheet1!M154="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K137" t="str">
-        <f>Sheet1!N154</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138">
         <f>Sheet1!C155</f>
         <v>136</v>
@@ -21657,12 +21072,8 @@
         <f>IF(Sheet1!M155="models-resource.com",1,IF(Sheet1!M155="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K138" t="str">
-        <f>Sheet1!N155</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139">
         <f>Sheet1!C156</f>
         <v>137</v>
@@ -21699,12 +21110,8 @@
         <f>IF(Sheet1!M156="models-resource.com",1,IF(Sheet1!M156="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K139" t="str">
-        <f>Sheet1!N156</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140">
         <f>Sheet1!C157</f>
         <v>138</v>
@@ -21741,12 +21148,8 @@
         <f>IF(Sheet1!M157="models-resource.com",1,IF(Sheet1!M157="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K140" t="str">
-        <f>Sheet1!N157</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141">
         <f>Sheet1!C158</f>
         <v>139</v>
@@ -21783,12 +21186,8 @@
         <f>IF(Sheet1!M158="models-resource.com",1,IF(Sheet1!M158="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K141" t="str">
-        <f>Sheet1!N158</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142">
         <f>Sheet1!C159</f>
         <v>140</v>
@@ -21825,12 +21224,8 @@
         <f>IF(Sheet1!M159="models-resource.com",1,IF(Sheet1!M159="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K142" t="str">
-        <f>Sheet1!N159</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143">
         <f>Sheet1!C160</f>
         <v>141</v>
@@ -21867,12 +21262,8 @@
         <f>IF(Sheet1!M160="models-resource.com",1,IF(Sheet1!M160="roestudios.co.uk",2,"-"))</f>
         <v>2</v>
       </c>
-      <c r="K143" t="str">
-        <f>Sheet1!N160</f>
-        <v>(m) UVW needs to be fixed</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144">
         <f>Sheet1!C161</f>
         <v>142</v>
@@ -21909,12 +21300,8 @@
         <f>IF(Sheet1!M161="models-resource.com",1,IF(Sheet1!M161="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K144" t="str">
-        <f>Sheet1!N161</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145">
         <f>Sheet1!C162</f>
         <v>143</v>
@@ -21951,12 +21338,8 @@
         <f>IF(Sheet1!M162="models-resource.com",1,IF(Sheet1!M162="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K145" t="str">
-        <f>Sheet1!N162</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146">
         <f>Sheet1!C163</f>
         <v>144</v>
@@ -21993,12 +21376,8 @@
         <f>IF(Sheet1!M163="models-resource.com",1,IF(Sheet1!M163="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K146" t="str">
-        <f>Sheet1!N163</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147">
         <f>Sheet1!C164</f>
         <v>145</v>
@@ -22035,12 +21414,8 @@
         <f>IF(Sheet1!M164="models-resource.com",1,IF(Sheet1!M164="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K147" t="str">
-        <f>Sheet1!N164</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148">
         <f>Sheet1!C165</f>
         <v>146</v>
@@ -22077,12 +21452,8 @@
         <f>IF(Sheet1!M165="models-resource.com",1,IF(Sheet1!M165="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K148" t="str">
-        <f>Sheet1!N165</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149">
         <f>Sheet1!C166</f>
         <v>147</v>
@@ -22119,12 +21490,8 @@
         <f>IF(Sheet1!M166="models-resource.com",1,IF(Sheet1!M166="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K149" t="str">
-        <f>Sheet1!N166</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150">
         <f>Sheet1!C167</f>
         <v>148</v>
@@ -22161,12 +21528,8 @@
         <f>IF(Sheet1!M167="models-resource.com",1,IF(Sheet1!M167="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K150" t="str">
-        <f>Sheet1!N167</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151">
         <f>Sheet1!C168</f>
         <v>149</v>
@@ -22203,12 +21566,8 @@
         <f>IF(Sheet1!M168="models-resource.com",1,IF(Sheet1!M168="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K151" t="str">
-        <f>Sheet1!N168</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152">
         <f>Sheet1!C169</f>
         <v>150</v>
@@ -22245,12 +21604,8 @@
         <f>IF(Sheet1!M169="models-resource.com",1,IF(Sheet1!M169="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
       </c>
-      <c r="K152" t="str">
-        <f>Sheet1!N169</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153">
         <f>Sheet1!C170</f>
         <v>151</v>
@@ -22286,10 +21641,6 @@
       <c r="J153">
         <f>IF(Sheet1!M170="models-resource.com",1,IF(Sheet1!M170="roestudios.co.uk",2,"-"))</f>
         <v>1</v>
-      </c>
-      <c r="K153" t="str">
-        <f>Sheet1!N170</f>
-        <v>-</v>
       </c>
     </row>
   </sheetData>

--- a/List of Pokemon 3D Models.xlsx
+++ b/List of Pokemon 3D Models.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="21600" windowHeight="10040"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="21600" windowHeight="10040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="185">
   <si>
     <t>Mew</t>
   </si>
@@ -559,16 +559,7 @@
     <t>Issues</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>(s) Bodytexture on 3 different sections</t>
-  </si>
-  <si>
     <t>Working files are the .C4D    -    FBX / OBJ are the Sourcefiles</t>
-  </si>
-  <si>
-    <t>(s) Bodytexture on 4 different sections</t>
   </si>
   <si>
     <t>Done</t>
@@ -581,30 +572,6 @@
   </si>
   <si>
     <t>Modeled</t>
-  </si>
-  <si>
-    <t>(h) Model needs to be done or found</t>
-  </si>
-  <si>
-    <t>(m) UVW needs to be fixed</t>
-  </si>
-  <si>
-    <t>(m) Flametexture of the tail need to be done better</t>
-  </si>
-  <si>
-    <t>(s) Eyedots need to be integrated in bodytexture</t>
-  </si>
-  <si>
-    <t>(m) Textureproblems with Wings and Eyes</t>
-  </si>
-  <si>
-    <t>(m) Flametexture need to be done better and UVW needs to be fixed</t>
-  </si>
-  <si>
-    <t>(m) Flames need to be added and UVW needs to be fixed</t>
-  </si>
-  <si>
-    <t>(m) UVW needs to be fixed and mist needs to be added</t>
   </si>
   <si>
     <r>
@@ -663,9 +630,6 @@
       </rPr>
       <t xml:space="preserve"> (h) - high</t>
     </r>
-  </si>
-  <si>
-    <t>(m) UVW needs to be fixed, heads and tails not attached</t>
   </si>
   <si>
     <t>Nr</t>
@@ -816,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -879,12 +843,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,23 +852,26 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="20">
     <dxf>
       <font>
         <b/>
@@ -936,27 +897,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -974,15 +914,6 @@
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -9016,25 +8947,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B19:N170" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="B19:N170"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B19:M170" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B19:M170"/>
   <sortState ref="B3:K153">
     <sortCondition ref="B2:B153"/>
   </sortState>
-  <tableColumns count="13">
-    <tableColumn id="1" name="Pic" dataDxfId="21"/>
-    <tableColumn id="2" name="Nr." dataDxfId="20"/>
-    <tableColumn id="3" name="Name" dataDxfId="19"/>
-    <tableColumn id="10" name="Hight [m]" dataDxfId="18"/>
-    <tableColumn id="9" name="Modeled" dataDxfId="17"/>
-    <tableColumn id="13" name="Q" dataDxfId="16"/>
-    <tableColumn id="8" name="Textured" dataDxfId="15"/>
-    <tableColumn id="11" name="Split" dataDxfId="14"/>
-    <tableColumn id="4" name="Rigged" dataDxfId="13"/>
-    <tableColumn id="5" name="Animated" dataDxfId="12"/>
-    <tableColumn id="12" name="Exported" dataDxfId="11"/>
-    <tableColumn id="7" name="Origin" dataDxfId="10"/>
-    <tableColumn id="6" name="Issues" dataDxfId="9"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Pic" dataDxfId="17"/>
+    <tableColumn id="2" name="Nr." dataDxfId="16"/>
+    <tableColumn id="3" name="Name" dataDxfId="15"/>
+    <tableColumn id="10" name="Hight [m]" dataDxfId="14"/>
+    <tableColumn id="9" name="Modeled" dataDxfId="13"/>
+    <tableColumn id="13" name="Q" dataDxfId="12"/>
+    <tableColumn id="8" name="Textured" dataDxfId="11"/>
+    <tableColumn id="11" name="Split" dataDxfId="10"/>
+    <tableColumn id="4" name="Rigged" dataDxfId="9"/>
+    <tableColumn id="5" name="Animated" dataDxfId="8"/>
+    <tableColumn id="12" name="Exported" dataDxfId="7"/>
+    <tableColumn id="7" name="Origin" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9359,8 +9289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9383,20 +9313,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="5" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="29"/>
     </row>
     <row r="2" spans="2:14" s="5" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9414,19 +9344,19 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="B3" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
     </row>
@@ -9446,10 +9376,10 @@
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="27"/>
+      <c r="B5" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="26"/>
       <c r="D5" s="28" t="s">
         <v>169</v>
       </c>
@@ -9465,10 +9395,10 @@
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="28" t="s">
         <v>174</v>
       </c>
@@ -9484,10 +9414,10 @@
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="28" t="s">
         <v>166</v>
       </c>
@@ -9503,10 +9433,10 @@
       <c r="N7" s="17"/>
     </row>
     <row r="8" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="28" t="s">
         <v>167</v>
       </c>
@@ -9522,10 +9452,10 @@
       <c r="N8" s="17"/>
     </row>
     <row r="9" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="28" t="s">
         <v>172</v>
       </c>
@@ -9541,10 +9471,10 @@
       <c r="N9" s="17"/>
     </row>
     <row r="10" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="28" t="s">
         <v>171</v>
       </c>
@@ -9560,10 +9490,10 @@
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="28" t="s">
         <v>173</v>
       </c>
@@ -9579,12 +9509,12 @@
       <c r="N11" s="17"/>
     </row>
     <row r="12" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="28" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -9613,13 +9543,13 @@
       <c r="N13" s="17"/>
     </row>
     <row r="14" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="27"/>
+      <c r="B14" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="26"/>
       <c r="D14" s="14"/>
       <c r="E14" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>159</v>
@@ -9641,7 +9571,7 @@
     </row>
     <row r="15" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D15" s="21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E15" s="20">
         <f>COUNTIF(Table2[Modeled],"Yes")</f>
@@ -9649,7 +9579,7 @@
       </c>
       <c r="F15" s="20">
         <f>COUNTIF(Table2[Textured],"Yes")</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G15" s="20">
         <f>COUNTIF(Table2[Split],"Yes")</f>
@@ -9657,7 +9587,7 @@
       </c>
       <c r="H15" s="20">
         <f>COUNTIF(Table2[Rigged],"Yes")</f>
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I15" s="20">
         <f>COUNTIF(Table2[Animated],"Yes")</f>
@@ -9705,7 +9635,7 @@
     <row r="17" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="14"/>
       <c r="D17" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E17" s="20">
         <f>COUNTIF(Table2[Modeled],"No")</f>
@@ -9713,7 +9643,7 @@
       </c>
       <c r="F17" s="20">
         <f>COUNTIF(Table2[Textured],"No")</f>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G17" s="20">
         <f>COUNTIF(Table2[Split],"No")</f>
@@ -9721,7 +9651,7 @@
       </c>
       <c r="H17" s="20">
         <f>COUNTIF(Table2[Rigged],"No")</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I17" s="20">
         <f>COUNTIF(Table2[Animated],"No")</f>
@@ -9748,10 +9678,10 @@
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="23" t="s">
         <v>168</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -9761,7 +9691,7 @@
         <v>161</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>175</v>
@@ -9783,9 +9713,6 @@
       </c>
       <c r="M19" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9823,9 +9750,6 @@
       <c r="M20" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="N20" s="22" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="21" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9"/>
@@ -9862,9 +9786,6 @@
       <c r="M21" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N21" s="22" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="22" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="9"/>
@@ -9901,9 +9822,6 @@
       <c r="M22" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N22" s="22" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="23" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="9"/>
@@ -9940,9 +9858,6 @@
       <c r="M23" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N23" s="22" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="24" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="9"/>
@@ -9979,9 +9894,6 @@
       <c r="M24" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N24" s="22" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="25" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="9"/>
@@ -10018,9 +9930,6 @@
       <c r="M25" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N25" s="22" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="26" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
@@ -10057,9 +9966,6 @@
       <c r="M26" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N26" s="22" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="27" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="9"/>
@@ -10096,9 +10002,6 @@
       <c r="M27" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N27" s="22" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="28" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="9"/>
@@ -10135,9 +10038,6 @@
       <c r="M28" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N28" s="22" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="29" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
@@ -10174,9 +10074,6 @@
       <c r="M29" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N29" s="22" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="30" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
@@ -10213,9 +10110,6 @@
       <c r="M30" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N30" s="22" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="31" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="9"/>
@@ -10252,9 +10146,6 @@
       <c r="M31" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N31" s="22" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="32" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="9"/>
@@ -10291,11 +10182,8 @@
       <c r="M32" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N32" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
       <c r="C33" s="3">
         <v>14</v>
@@ -10330,11 +10218,8 @@
       <c r="M33" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N33" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9"/>
       <c r="C34" s="3">
         <v>15</v>
@@ -10369,11 +10254,8 @@
       <c r="M34" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N34" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9"/>
       <c r="C35" s="3">
         <v>16</v>
@@ -10408,11 +10290,8 @@
       <c r="M35" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N35" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="9"/>
       <c r="C36" s="3">
         <v>17</v>
@@ -10447,11 +10326,8 @@
       <c r="M36" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N36" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="9"/>
       <c r="C37" s="3">
         <v>18</v>
@@ -10486,11 +10362,8 @@
       <c r="M37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="9"/>
       <c r="C38" s="3">
         <v>19</v>
@@ -10525,11 +10398,8 @@
       <c r="M38" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N38" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="9"/>
       <c r="C39" s="3">
         <v>20</v>
@@ -10564,11 +10434,8 @@
       <c r="M39" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N39" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
       <c r="C40" s="3">
         <v>21</v>
@@ -10603,11 +10470,8 @@
       <c r="M40" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N40" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="9"/>
       <c r="C41" s="3">
         <v>22</v>
@@ -10642,11 +10506,8 @@
       <c r="M41" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N41" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="9"/>
       <c r="C42" s="3">
         <v>23</v>
@@ -10681,11 +10542,8 @@
       <c r="M42" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N42" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="9"/>
       <c r="C43" s="3">
         <v>24</v>
@@ -10720,11 +10578,8 @@
       <c r="M43" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N43" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="9"/>
       <c r="C44" s="3">
         <v>25</v>
@@ -10759,11 +10614,8 @@
       <c r="M44" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N44" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="9"/>
       <c r="C45" s="3">
         <v>26</v>
@@ -10798,11 +10650,8 @@
       <c r="M45" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N45" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="9"/>
       <c r="C46" s="3">
         <v>27</v>
@@ -10837,11 +10686,8 @@
       <c r="M46" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N46" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="9"/>
       <c r="C47" s="3">
         <v>28</v>
@@ -10876,11 +10722,8 @@
       <c r="M47" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N47" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
       <c r="C48" s="3">
         <v>29</v>
@@ -10915,11 +10758,8 @@
       <c r="M48" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N48" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="9"/>
       <c r="C49" s="3">
         <v>30</v>
@@ -10954,11 +10794,8 @@
       <c r="M49" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N49" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="9"/>
       <c r="C50" s="3">
         <v>31</v>
@@ -10993,11 +10830,8 @@
       <c r="M50" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N50" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="9"/>
       <c r="C51" s="3">
         <v>32</v>
@@ -11032,11 +10866,8 @@
       <c r="M51" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N51" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="9"/>
       <c r="C52" s="3">
         <v>33</v>
@@ -11071,11 +10902,8 @@
       <c r="M52" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N52" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="9"/>
       <c r="C53" s="3">
         <v>34</v>
@@ -11110,11 +10938,8 @@
       <c r="M53" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N53" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="9"/>
       <c r="C54" s="3">
         <v>35</v>
@@ -11149,11 +10974,8 @@
       <c r="M54" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N54" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="9"/>
       <c r="C55" s="3">
         <v>36</v>
@@ -11188,11 +11010,8 @@
       <c r="M55" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N55" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="9"/>
       <c r="C56" s="3">
         <v>37</v>
@@ -11227,11 +11046,8 @@
       <c r="M56" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N56" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="9"/>
       <c r="C57" s="3">
         <v>38</v>
@@ -11266,11 +11082,8 @@
       <c r="M57" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N57" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="9"/>
       <c r="C58" s="3">
         <v>39</v>
@@ -11305,11 +11118,8 @@
       <c r="M58" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N58" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="9"/>
       <c r="C59" s="3">
         <v>40</v>
@@ -11344,11 +11154,8 @@
       <c r="M59" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N59" s="22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="9"/>
       <c r="C60" s="3">
         <v>41</v>
@@ -11383,11 +11190,8 @@
       <c r="M60" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N60" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="9"/>
       <c r="C61" s="3">
         <v>42</v>
@@ -11422,11 +11226,8 @@
       <c r="M61" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N61" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="9"/>
       <c r="C62" s="3">
         <v>43</v>
@@ -11461,11 +11262,8 @@
       <c r="M62" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N62" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="9"/>
       <c r="C63" s="3">
         <v>44</v>
@@ -11500,11 +11298,8 @@
       <c r="M63" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N63" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="9"/>
       <c r="C64" s="3">
         <v>45</v>
@@ -11539,11 +11334,8 @@
       <c r="M64" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N64" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="9"/>
       <c r="C65" s="3">
         <v>46</v>
@@ -11578,11 +11370,8 @@
       <c r="M65" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N65" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="9"/>
       <c r="C66" s="3">
         <v>47</v>
@@ -11617,11 +11406,8 @@
       <c r="M66" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N66" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="9"/>
       <c r="C67" s="3">
         <v>48</v>
@@ -11656,11 +11442,8 @@
       <c r="M67" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N67" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="9"/>
       <c r="C68" s="3">
         <v>49</v>
@@ -11695,11 +11478,8 @@
       <c r="M68" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N68" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="9"/>
       <c r="C69" s="3">
         <v>50</v>
@@ -11734,11 +11514,8 @@
       <c r="M69" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N69" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="9"/>
       <c r="C70" s="3">
         <v>51</v>
@@ -11773,11 +11550,8 @@
       <c r="M70" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N70" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="9"/>
       <c r="C71" s="3">
         <v>52</v>
@@ -11812,11 +11586,8 @@
       <c r="M71" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N71" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="9"/>
       <c r="C72" s="3">
         <v>53</v>
@@ -11851,11 +11622,8 @@
       <c r="M72" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N72" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="9"/>
       <c r="C73" s="3">
         <v>54</v>
@@ -11890,11 +11658,8 @@
       <c r="M73" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N73" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="9"/>
       <c r="C74" s="3">
         <v>55</v>
@@ -11929,11 +11694,8 @@
       <c r="M74" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N74" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="9"/>
       <c r="C75" s="3">
         <v>56</v>
@@ -11968,11 +11730,8 @@
       <c r="M75" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N75" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="9"/>
       <c r="C76" s="3">
         <v>57</v>
@@ -12007,11 +11766,8 @@
       <c r="M76" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N76" s="22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="9"/>
       <c r="C77" s="3">
         <v>58</v>
@@ -12046,11 +11802,8 @@
       <c r="M77" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N77" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="9"/>
       <c r="C78" s="3">
         <v>59</v>
@@ -12085,11 +11838,8 @@
       <c r="M78" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N78" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="9"/>
       <c r="C79" s="3">
         <v>60</v>
@@ -12124,11 +11874,8 @@
       <c r="M79" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N79" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="9"/>
       <c r="C80" s="3">
         <v>61</v>
@@ -12163,11 +11910,8 @@
       <c r="M80" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N80" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="9"/>
       <c r="C81" s="3">
         <v>62</v>
@@ -12202,11 +11946,8 @@
       <c r="M81" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N81" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="9"/>
       <c r="C82" s="3">
         <v>63</v>
@@ -12241,11 +11982,8 @@
       <c r="M82" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N82" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="9"/>
       <c r="C83" s="3">
         <v>64</v>
@@ -12280,11 +12018,8 @@
       <c r="M83" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N83" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="9"/>
       <c r="C84" s="3">
         <v>65</v>
@@ -12319,11 +12054,8 @@
       <c r="M84" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N84" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="9"/>
       <c r="C85" s="3">
         <v>66</v>
@@ -12358,11 +12090,8 @@
       <c r="M85" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N85" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="9"/>
       <c r="C86" s="3">
         <v>67</v>
@@ -12397,11 +12126,8 @@
       <c r="M86" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N86" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="9"/>
       <c r="C87" s="3">
         <v>68</v>
@@ -12436,11 +12162,8 @@
       <c r="M87" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N87" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="9"/>
       <c r="C88" s="3">
         <v>69</v>
@@ -12475,11 +12198,8 @@
       <c r="M88" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N88" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="9"/>
       <c r="C89" s="3">
         <v>70</v>
@@ -12514,11 +12234,8 @@
       <c r="M89" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N89" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="9"/>
       <c r="C90" s="3">
         <v>71</v>
@@ -12553,11 +12270,8 @@
       <c r="M90" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N90" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="9"/>
       <c r="C91" s="3">
         <v>72</v>
@@ -12592,11 +12306,8 @@
       <c r="M91" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N91" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="9"/>
       <c r="C92" s="3">
         <v>73</v>
@@ -12631,11 +12342,8 @@
       <c r="M92" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N92" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="9"/>
       <c r="C93" s="3">
         <v>74</v>
@@ -12670,11 +12378,8 @@
       <c r="M93" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N93" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="9"/>
       <c r="C94" s="3">
         <v>75</v>
@@ -12709,11 +12414,8 @@
       <c r="M94" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N94" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
       <c r="C95" s="3">
         <v>76</v>
@@ -12748,11 +12450,8 @@
       <c r="M95" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N95" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
       <c r="C96" s="3">
         <v>77</v>
@@ -12767,7 +12466,7 @@
         <v>153</v>
       </c>
       <c r="G96" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>154</v>
@@ -12776,7 +12475,7 @@
         <v>154</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K96" s="11" t="s">
         <v>154</v>
@@ -12785,13 +12484,10 @@
         <v>154</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="N96" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="9"/>
       <c r="C97" s="3">
         <v>78</v>
@@ -12806,7 +12502,7 @@
         <v>153</v>
       </c>
       <c r="G97" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>154</v>
@@ -12815,7 +12511,7 @@
         <v>154</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K97" s="11" t="s">
         <v>154</v>
@@ -12824,13 +12520,10 @@
         <v>154</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="N97" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="9"/>
       <c r="C98" s="3">
         <v>79</v>
@@ -12865,11 +12558,8 @@
       <c r="M98" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N98" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="9"/>
       <c r="C99" s="3">
         <v>80</v>
@@ -12904,11 +12594,8 @@
       <c r="M99" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N99" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="9"/>
       <c r="C100" s="3">
         <v>81</v>
@@ -12943,11 +12630,8 @@
       <c r="M100" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N100" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="9"/>
       <c r="C101" s="3">
         <v>82</v>
@@ -12982,11 +12666,8 @@
       <c r="M101" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N101" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="9"/>
       <c r="C102" s="3">
         <v>83</v>
@@ -13021,11 +12702,8 @@
       <c r="M102" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N102" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="9"/>
       <c r="C103" s="3">
         <v>84</v>
@@ -13040,16 +12718,16 @@
         <v>153</v>
       </c>
       <c r="G103" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>154</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K103" s="11" t="s">
         <v>154</v>
@@ -13058,13 +12736,10 @@
         <v>154</v>
       </c>
       <c r="M103" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="N103" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="9"/>
       <c r="C104" s="3">
         <v>85</v>
@@ -13079,16 +12754,16 @@
         <v>153</v>
       </c>
       <c r="G104" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>154</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K104" s="11" t="s">
         <v>154</v>
@@ -13097,13 +12772,10 @@
         <v>154</v>
       </c>
       <c r="M104" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="N104" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="9"/>
       <c r="C105" s="3">
         <v>86</v>
@@ -13118,16 +12790,16 @@
         <v>153</v>
       </c>
       <c r="G105" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>154</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K105" s="11" t="s">
         <v>154</v>
@@ -13136,13 +12808,10 @@
         <v>154</v>
       </c>
       <c r="M105" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="N105" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="9"/>
       <c r="C106" s="3">
         <v>87</v>
@@ -13157,16 +12826,16 @@
         <v>153</v>
       </c>
       <c r="G106" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>154</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K106" s="11" t="s">
         <v>154</v>
@@ -13175,13 +12844,10 @@
         <v>154</v>
       </c>
       <c r="M106" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="N106" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="9"/>
       <c r="C107" s="3">
         <v>88</v>
@@ -13216,11 +12882,8 @@
       <c r="M107" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N107" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="9"/>
       <c r="C108" s="3">
         <v>89</v>
@@ -13255,11 +12918,8 @@
       <c r="M108" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N108" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="9"/>
       <c r="C109" s="3">
         <v>90</v>
@@ -13294,11 +12954,8 @@
       <c r="M109" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N109" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="9"/>
       <c r="C110" s="3">
         <v>91</v>
@@ -13333,11 +12990,8 @@
       <c r="M110" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N110" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="9"/>
       <c r="C111" s="3">
         <v>92</v>
@@ -13372,11 +13026,8 @@
       <c r="M111" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N111" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="9"/>
       <c r="C112" s="3">
         <v>93</v>
@@ -13411,11 +13062,8 @@
       <c r="M112" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N112" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="9"/>
       <c r="C113" s="3">
         <v>94</v>
@@ -13450,11 +13098,8 @@
       <c r="M113" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N113" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="9"/>
       <c r="C114" s="3">
         <v>95</v>
@@ -13489,11 +13134,8 @@
       <c r="M114" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N114" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="9"/>
       <c r="C115" s="3">
         <v>96</v>
@@ -13528,11 +13170,8 @@
       <c r="M115" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N115" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="9"/>
       <c r="C116" s="3">
         <v>97</v>
@@ -13567,11 +13206,8 @@
       <c r="M116" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N116" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="9"/>
       <c r="C117" s="3">
         <v>98</v>
@@ -13606,11 +13242,8 @@
       <c r="M117" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N117" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="9"/>
       <c r="C118" s="3">
         <v>99</v>
@@ -13645,11 +13278,8 @@
       <c r="M118" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N118" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="9"/>
       <c r="C119" s="3">
         <v>100</v>
@@ -13684,11 +13314,8 @@
       <c r="M119" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N119" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="9"/>
       <c r="C120" s="3">
         <v>101</v>
@@ -13723,11 +13350,8 @@
       <c r="M120" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N120" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="9"/>
       <c r="C121" s="3">
         <v>102</v>
@@ -13762,11 +13386,8 @@
       <c r="M121" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N121" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="9"/>
       <c r="C122" s="3">
         <v>103</v>
@@ -13801,11 +13422,8 @@
       <c r="M122" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N122" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="9"/>
       <c r="C123" s="3">
         <v>104</v>
@@ -13840,11 +13458,8 @@
       <c r="M123" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N123" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="9"/>
       <c r="C124" s="3">
         <v>105</v>
@@ -13879,11 +13494,8 @@
       <c r="M124" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N124" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="9"/>
       <c r="C125" s="3">
         <v>106</v>
@@ -13918,11 +13530,8 @@
       <c r="M125" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N125" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="9"/>
       <c r="C126" s="3">
         <v>107</v>
@@ -13957,11 +13566,8 @@
       <c r="M126" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N126" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="9"/>
       <c r="C127" s="3">
         <v>108</v>
@@ -13996,11 +13602,8 @@
       <c r="M127" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N127" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="9"/>
       <c r="C128" s="3">
         <v>109</v>
@@ -14035,11 +13638,8 @@
       <c r="M128" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N128" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="9"/>
       <c r="C129" s="3">
         <v>110</v>
@@ -14074,11 +13674,8 @@
       <c r="M129" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N129" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="9"/>
       <c r="C130" s="3">
         <v>111</v>
@@ -14113,11 +13710,8 @@
       <c r="M130" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N130" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="9"/>
       <c r="C131" s="3">
         <v>112</v>
@@ -14152,11 +13746,8 @@
       <c r="M131" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N131" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="9"/>
       <c r="C132" s="3">
         <v>113</v>
@@ -14191,11 +13782,8 @@
       <c r="M132" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N132" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="9"/>
       <c r="C133" s="3">
         <v>114</v>
@@ -14230,11 +13818,8 @@
       <c r="M133" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N133" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="9"/>
       <c r="C134" s="3">
         <v>115</v>
@@ -14269,11 +13854,8 @@
       <c r="M134" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N134" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="9"/>
       <c r="C135" s="3">
         <v>116</v>
@@ -14308,11 +13890,8 @@
       <c r="M135" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N135" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="9"/>
       <c r="C136" s="3">
         <v>117</v>
@@ -14347,11 +13926,8 @@
       <c r="M136" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N136" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="9"/>
       <c r="C137" s="3">
         <v>118</v>
@@ -14386,11 +13962,8 @@
       <c r="M137" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N137" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="9"/>
       <c r="C138" s="3">
         <v>119</v>
@@ -14421,11 +13994,8 @@
         <v>154</v>
       </c>
       <c r="M138" s="13"/>
-      <c r="N138" s="22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="9"/>
       <c r="C139" s="3">
         <v>120</v>
@@ -14460,11 +14030,8 @@
       <c r="M139" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N139" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="9"/>
       <c r="C140" s="3">
         <v>121</v>
@@ -14499,11 +14066,8 @@
       <c r="M140" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N140" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="9"/>
       <c r="C141" s="3">
         <v>122</v>
@@ -14538,11 +14102,8 @@
       <c r="M141" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N141" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="9"/>
       <c r="C142" s="3">
         <v>123</v>
@@ -14577,11 +14138,8 @@
       <c r="M142" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N142" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="9"/>
       <c r="C143" s="3">
         <v>124</v>
@@ -14616,11 +14174,8 @@
       <c r="M143" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N143" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="9"/>
       <c r="C144" s="3">
         <v>125</v>
@@ -14655,11 +14210,8 @@
       <c r="M144" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N144" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="9"/>
       <c r="C145" s="3">
         <v>126</v>
@@ -14694,11 +14246,8 @@
       <c r="M145" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N145" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="9"/>
       <c r="C146" s="3">
         <v>127</v>
@@ -14733,11 +14282,8 @@
       <c r="M146" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N146" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="9"/>
       <c r="C147" s="3">
         <v>128</v>
@@ -14772,11 +14318,8 @@
       <c r="M147" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N147" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="9"/>
       <c r="C148" s="3">
         <v>129</v>
@@ -14811,11 +14354,8 @@
       <c r="M148" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N148" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="9"/>
       <c r="C149" s="3">
         <v>130</v>
@@ -14850,11 +14390,8 @@
       <c r="M149" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N149" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="9"/>
       <c r="C150" s="3">
         <v>131</v>
@@ -14889,11 +14426,8 @@
       <c r="M150" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N150" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="151" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="9"/>
       <c r="C151" s="3">
         <v>132</v>
@@ -14928,11 +14462,8 @@
       <c r="M151" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N151" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="152" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="9"/>
       <c r="C152" s="3">
         <v>133</v>
@@ -14967,11 +14498,8 @@
       <c r="M152" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N152" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="153" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="9"/>
       <c r="C153" s="3">
         <v>134</v>
@@ -15006,11 +14534,8 @@
       <c r="M153" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N153" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="9"/>
       <c r="C154" s="3">
         <v>135</v>
@@ -15045,11 +14570,8 @@
       <c r="M154" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N154" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="9"/>
       <c r="C155" s="3">
         <v>136</v>
@@ -15084,11 +14606,8 @@
       <c r="M155" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N155" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="9"/>
       <c r="C156" s="3">
         <v>137</v>
@@ -15123,11 +14642,8 @@
       <c r="M156" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N156" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="9"/>
       <c r="C157" s="3">
         <v>138</v>
@@ -15162,11 +14678,8 @@
       <c r="M157" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N157" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="9"/>
       <c r="C158" s="3">
         <v>139</v>
@@ -15201,11 +14714,8 @@
       <c r="M158" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N158" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="9"/>
       <c r="C159" s="3">
         <v>140</v>
@@ -15240,11 +14750,8 @@
       <c r="M159" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N159" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="9"/>
       <c r="C160" s="3">
         <v>141</v>
@@ -15279,11 +14786,8 @@
       <c r="M160" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N160" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="9"/>
       <c r="C161" s="3">
         <v>142</v>
@@ -15318,11 +14822,8 @@
       <c r="M161" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N161" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="9"/>
       <c r="C162" s="3">
         <v>143</v>
@@ -15357,11 +14858,8 @@
       <c r="M162" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N162" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="9"/>
       <c r="C163" s="3">
         <v>144</v>
@@ -15396,11 +14894,8 @@
       <c r="M163" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N163" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="164" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="9"/>
       <c r="C164" s="3">
         <v>145</v>
@@ -15435,11 +14930,8 @@
       <c r="M164" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N164" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="9"/>
       <c r="C165" s="3">
         <v>146</v>
@@ -15474,11 +14966,8 @@
       <c r="M165" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N165" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="9"/>
       <c r="C166" s="3">
         <v>147</v>
@@ -15513,11 +15002,8 @@
       <c r="M166" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N166" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="9"/>
       <c r="C167" s="3">
         <v>148</v>
@@ -15552,11 +15038,8 @@
       <c r="M167" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N167" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="9"/>
       <c r="C168" s="3">
         <v>149</v>
@@ -15591,11 +15074,8 @@
       <c r="M168" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N168" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="9"/>
       <c r="C169" s="3">
         <v>150</v>
@@ -15630,11 +15110,8 @@
       <c r="M169" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N169" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="9"/>
       <c r="C170" s="3">
         <v>151</v>
@@ -15669,13 +15146,13 @@
       <c r="M170" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N170" s="22" t="s">
-        <v>177</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B1:M1"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="D10:L10"/>
@@ -15691,34 +15168,20 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D5:L5"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:L170 D20:F170 B20:B170">
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G169 H20:L170 D20:F170 B20:B170">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F170 H20:L170">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"in Progress"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N76:N79 N20:N74 N81:N170">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="(h)">
-      <formula>NOT(ISERROR(SEARCH("(h)",N20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="(m)">
-      <formula>NOT(ISERROR(SEARCH("(m)",N20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="(s)">
-      <formula>NOT(ISERROR(SEARCH("(s)",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:J15">
@@ -15849,60 +15312,60 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="22" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>196</v>
+        <v>184</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
@@ -18816,7 +18279,7 @@
       </c>
       <c r="G79" t="str">
         <f>Sheet1!J96</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H79" t="str">
         <f>Sheet1!K96</f>
@@ -18828,7 +18291,7 @@
       </c>
       <c r="J79">
         <f>IF(Sheet1!M96="models-resource.com",1,IF(Sheet1!M96="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
@@ -18854,7 +18317,7 @@
       </c>
       <c r="G80" t="str">
         <f>Sheet1!J97</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H80" t="str">
         <f>Sheet1!K97</f>
@@ -18866,7 +18329,7 @@
       </c>
       <c r="J80">
         <f>IF(Sheet1!M97="models-resource.com",1,IF(Sheet1!M97="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
@@ -19074,7 +18537,7 @@
       </c>
       <c r="E86" t="str">
         <f>Sheet1!H103</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F86" t="str">
         <f>Sheet1!I103</f>
@@ -19082,7 +18545,7 @@
       </c>
       <c r="G86" t="str">
         <f>Sheet1!J103</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H86" t="str">
         <f>Sheet1!K103</f>
@@ -19094,7 +18557,7 @@
       </c>
       <c r="J86">
         <f>IF(Sheet1!M103="models-resource.com",1,IF(Sheet1!M103="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
@@ -19112,7 +18575,7 @@
       </c>
       <c r="E87" t="str">
         <f>Sheet1!H104</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F87" t="str">
         <f>Sheet1!I104</f>
@@ -19120,7 +18583,7 @@
       </c>
       <c r="G87" t="str">
         <f>Sheet1!J104</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H87" t="str">
         <f>Sheet1!K104</f>
@@ -19132,7 +18595,7 @@
       </c>
       <c r="J87">
         <f>IF(Sheet1!M104="models-resource.com",1,IF(Sheet1!M104="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
@@ -19150,7 +18613,7 @@
       </c>
       <c r="E88" t="str">
         <f>Sheet1!H105</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F88" t="str">
         <f>Sheet1!I105</f>
@@ -19158,7 +18621,7 @@
       </c>
       <c r="G88" t="str">
         <f>Sheet1!J105</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H88" t="str">
         <f>Sheet1!K105</f>
@@ -19170,7 +18633,7 @@
       </c>
       <c r="J88">
         <f>IF(Sheet1!M105="models-resource.com",1,IF(Sheet1!M105="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
@@ -19188,7 +18651,7 @@
       </c>
       <c r="E89" t="str">
         <f>Sheet1!H106</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F89" t="str">
         <f>Sheet1!I106</f>
@@ -19196,7 +18659,7 @@
       </c>
       <c r="G89" t="str">
         <f>Sheet1!J106</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="H89" t="str">
         <f>Sheet1!K106</f>
@@ -19208,7 +18671,7 @@
       </c>
       <c r="J89">
         <f>IF(Sheet1!M106="models-resource.com",1,IF(Sheet1!M106="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">

--- a/List of Pokemon 3D Models.xlsx
+++ b/List of Pokemon 3D Models.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="21600" windowHeight="10040"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="21600" windowHeight="10040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -852,6 +852,12 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,60 +867,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1068,6 +1025,49 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8947,24 +8947,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B19:M170" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B19:M170" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="B19:M170"/>
   <sortState ref="B3:K153">
     <sortCondition ref="B2:B153"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="Pic" dataDxfId="17"/>
-    <tableColumn id="2" name="Nr." dataDxfId="16"/>
-    <tableColumn id="3" name="Name" dataDxfId="15"/>
-    <tableColumn id="10" name="Hight [m]" dataDxfId="14"/>
-    <tableColumn id="9" name="Modeled" dataDxfId="13"/>
-    <tableColumn id="13" name="Q" dataDxfId="12"/>
-    <tableColumn id="8" name="Textured" dataDxfId="11"/>
-    <tableColumn id="11" name="Split" dataDxfId="10"/>
-    <tableColumn id="4" name="Rigged" dataDxfId="9"/>
-    <tableColumn id="5" name="Animated" dataDxfId="8"/>
-    <tableColumn id="12" name="Exported" dataDxfId="7"/>
-    <tableColumn id="7" name="Origin" dataDxfId="6"/>
+    <tableColumn id="1" name="Pic" dataDxfId="11"/>
+    <tableColumn id="2" name="Nr." dataDxfId="10"/>
+    <tableColumn id="3" name="Name" dataDxfId="9"/>
+    <tableColumn id="10" name="Hight [m]" dataDxfId="8"/>
+    <tableColumn id="9" name="Modeled" dataDxfId="7"/>
+    <tableColumn id="13" name="Q" dataDxfId="6"/>
+    <tableColumn id="8" name="Textured" dataDxfId="5"/>
+    <tableColumn id="11" name="Split" dataDxfId="4"/>
+    <tableColumn id="4" name="Rigged" dataDxfId="3"/>
+    <tableColumn id="5" name="Animated" dataDxfId="2"/>
+    <tableColumn id="12" name="Exported" dataDxfId="1"/>
+    <tableColumn id="7" name="Origin" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9289,8 +9289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M97" sqref="M97"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9313,21 +9313,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="5" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="29"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="2:14" s="5" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="16"/>
@@ -9344,19 +9344,19 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
     </row>
@@ -9376,154 +9376,154 @@
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
     <row r="8" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
     <row r="9" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
     <row r="10" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
     <row r="12" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
@@ -9543,10 +9543,10 @@
       <c r="N13" s="17"/>
     </row>
     <row r="14" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="14"/>
       <c r="E14" s="18" t="s">
         <v>181</v>
@@ -9579,7 +9579,7 @@
       </c>
       <c r="F15" s="20">
         <f>COUNTIF(Table2[Textured],"Yes")</f>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G15" s="20">
         <f>COUNTIF(Table2[Split],"Yes")</f>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="F17" s="20">
         <f>COUNTIF(Table2[Textured],"No")</f>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G17" s="20">
         <f>COUNTIF(Table2[Split],"No")</f>
@@ -14949,7 +14949,7 @@
         <v>3</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>154</v>
@@ -14985,7 +14985,7 @@
         <v>4</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>154</v>
@@ -15021,7 +15021,7 @@
         <v>4</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I167" s="2" t="s">
         <v>154</v>
@@ -15057,7 +15057,7 @@
         <v>4</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I168" s="2" t="s">
         <v>154</v>
@@ -15093,7 +15093,7 @@
         <v>4</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>154</v>
@@ -15149,6 +15149,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D5:L5"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="D7:L7"/>
     <mergeCell ref="D8:L8"/>
@@ -15165,37 +15168,34 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:L170 D20:F170 B20:B170">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G169 H20:L170 D20:F170 B20:B170">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F170 H20:L170">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"in Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:J15">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>151</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:J16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:J17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20893,7 +20893,7 @@
       </c>
       <c r="E148" t="str">
         <f>Sheet1!H165</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F148" t="str">
         <f>Sheet1!I165</f>
@@ -20931,7 +20931,7 @@
       </c>
       <c r="E149" t="str">
         <f>Sheet1!H166</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F149" t="str">
         <f>Sheet1!I166</f>
@@ -20969,7 +20969,7 @@
       </c>
       <c r="E150" t="str">
         <f>Sheet1!H167</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F150" t="str">
         <f>Sheet1!I167</f>
@@ -21007,7 +21007,7 @@
       </c>
       <c r="E151" t="str">
         <f>Sheet1!H168</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F151" t="str">
         <f>Sheet1!I168</f>
@@ -21045,7 +21045,7 @@
       </c>
       <c r="E152" t="str">
         <f>Sheet1!H169</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F152" t="str">
         <f>Sheet1!I169</f>

--- a/List of Pokemon 3D Models.xlsx
+++ b/List of Pokemon 3D Models.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabio\Documents\GitHub\PoGo-3D-Assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="21600" windowHeight="10040"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="21600" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="187">
   <si>
     <t>Mew</t>
   </si>
@@ -637,11 +632,17 @@
   <si>
     <t>---</t>
   </si>
+  <si>
+    <t>---|</t>
+  </si>
+  <si>
+    <t>Origin|</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -780,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -855,23 +856,69 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -895,7 +942,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1015,7 +1061,6 @@
         <sz val="11"/>
         <color theme="1" tint="4.9989318521683403E-2"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1025,49 +1070,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8947,24 +8949,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B19:M170" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B19:M170" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B19:M170"/>
   <sortState ref="B3:K153">
     <sortCondition ref="B2:B153"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="Pic" dataDxfId="11"/>
-    <tableColumn id="2" name="Nr." dataDxfId="10"/>
-    <tableColumn id="3" name="Name" dataDxfId="9"/>
-    <tableColumn id="10" name="Hight [m]" dataDxfId="8"/>
-    <tableColumn id="9" name="Modeled" dataDxfId="7"/>
-    <tableColumn id="13" name="Q" dataDxfId="6"/>
-    <tableColumn id="8" name="Textured" dataDxfId="5"/>
-    <tableColumn id="11" name="Split" dataDxfId="4"/>
-    <tableColumn id="4" name="Rigged" dataDxfId="3"/>
-    <tableColumn id="5" name="Animated" dataDxfId="2"/>
-    <tableColumn id="12" name="Exported" dataDxfId="1"/>
-    <tableColumn id="7" name="Origin" dataDxfId="0"/>
+    <tableColumn id="1" name="Pic" dataDxfId="17"/>
+    <tableColumn id="2" name="Nr." dataDxfId="16"/>
+    <tableColumn id="3" name="Name" dataDxfId="15"/>
+    <tableColumn id="10" name="Hight [m]" dataDxfId="14"/>
+    <tableColumn id="9" name="Modeled" dataDxfId="13"/>
+    <tableColumn id="13" name="Q" dataDxfId="12"/>
+    <tableColumn id="8" name="Textured" dataDxfId="11"/>
+    <tableColumn id="11" name="Split" dataDxfId="10"/>
+    <tableColumn id="4" name="Rigged" dataDxfId="9"/>
+    <tableColumn id="5" name="Animated" dataDxfId="8"/>
+    <tableColumn id="12" name="Exported" dataDxfId="7"/>
+    <tableColumn id="7" name="Origin" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9033,7 +9035,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -9085,7 +9087,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -9279,7 +9281,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9289,44 +9291,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H170" sqref="H170"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N159" sqref="N159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.36328125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="62" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="7"/>
+    <col min="15" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="5" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="2:14" s="5" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="25"/>
     </row>
     <row r="2" spans="2:14" s="5" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9343,7 +9345,7 @@
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="29" t="s">
         <v>177</v>
       </c>
@@ -9360,7 +9362,7 @@
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -9375,159 +9377,159 @@
       <c r="M4" s="16"/>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="28" t="s">
+    <row r="8" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="28" t="s">
+    <row r="10" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="26" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="28" t="s">
+    <row r="11" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="28" t="s">
+    <row r="12" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="14"/>
@@ -9542,11 +9544,11 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="28" t="s">
+    <row r="14" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="14"/>
       <c r="E14" s="18" t="s">
         <v>181</v>
@@ -9569,7 +9571,7 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D15" s="21" t="s">
         <v>178</v>
       </c>
@@ -9579,7 +9581,7 @@
       </c>
       <c r="F15" s="20">
         <f>COUNTIF(Table2[Textured],"Yes")</f>
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="G15" s="20">
         <f>COUNTIF(Table2[Split],"Yes")</f>
@@ -9600,7 +9602,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="14"/>
       <c r="D16" s="21" t="s">
         <v>163</v>
@@ -9632,7 +9634,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="2:14" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="14"/>
       <c r="D17" s="21" t="s">
         <v>179</v>
@@ -9643,7 +9645,7 @@
       </c>
       <c r="F17" s="20">
         <f>COUNTIF(Table2[Textured],"No")</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G17" s="20">
         <f>COUNTIF(Table2[Split],"No")</f>
@@ -9664,7 +9666,7 @@
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="2:14" s="5" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -9677,7 +9679,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="23" t="s">
         <v>160</v>
       </c>
@@ -9715,7 +9717,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
       <c r="C20" s="3">
         <v>1</v>
@@ -9751,7 +9753,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9"/>
       <c r="C21" s="3">
         <v>2</v>
@@ -9787,7 +9789,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="9"/>
       <c r="C22" s="3">
         <v>3</v>
@@ -9823,7 +9825,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="9"/>
       <c r="C23" s="3">
         <v>4</v>
@@ -9859,7 +9861,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="9"/>
       <c r="C24" s="3">
         <v>5</v>
@@ -9895,7 +9897,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="9"/>
       <c r="C25" s="3">
         <v>6</v>
@@ -9931,7 +9933,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
       <c r="C26" s="3">
         <v>7</v>
@@ -9967,7 +9969,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="9"/>
       <c r="C27" s="3">
         <v>8</v>
@@ -10003,7 +10005,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="9"/>
       <c r="C28" s="3">
         <v>9</v>
@@ -10039,7 +10041,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
       <c r="C29" s="3">
         <v>10</v>
@@ -10075,7 +10077,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
       <c r="C30" s="3">
         <v>11</v>
@@ -10111,7 +10113,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="9"/>
       <c r="C31" s="3">
         <v>12</v>
@@ -10147,7 +10149,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="9"/>
       <c r="C32" s="3">
         <v>13</v>
@@ -10183,7 +10185,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
       <c r="C33" s="3">
         <v>14</v>
@@ -10219,7 +10221,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9"/>
       <c r="C34" s="3">
         <v>15</v>
@@ -10255,7 +10257,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9"/>
       <c r="C35" s="3">
         <v>16</v>
@@ -10291,7 +10293,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="9"/>
       <c r="C36" s="3">
         <v>17</v>
@@ -10327,7 +10329,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="9"/>
       <c r="C37" s="3">
         <v>18</v>
@@ -10363,7 +10365,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="9"/>
       <c r="C38" s="3">
         <v>19</v>
@@ -10399,7 +10401,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="9"/>
       <c r="C39" s="3">
         <v>20</v>
@@ -10435,7 +10437,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="9"/>
       <c r="C40" s="3">
         <v>21</v>
@@ -10471,7 +10473,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="9"/>
       <c r="C41" s="3">
         <v>22</v>
@@ -10507,7 +10509,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="9"/>
       <c r="C42" s="3">
         <v>23</v>
@@ -10543,7 +10545,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="9"/>
       <c r="C43" s="3">
         <v>24</v>
@@ -10579,7 +10581,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="9"/>
       <c r="C44" s="3">
         <v>25</v>
@@ -10615,7 +10617,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="9"/>
       <c r="C45" s="3">
         <v>26</v>
@@ -10651,7 +10653,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="9"/>
       <c r="C46" s="3">
         <v>27</v>
@@ -10687,7 +10689,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="9"/>
       <c r="C47" s="3">
         <v>28</v>
@@ -10723,7 +10725,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
       <c r="C48" s="3">
         <v>29</v>
@@ -10759,7 +10761,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="9"/>
       <c r="C49" s="3">
         <v>30</v>
@@ -10795,7 +10797,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="9"/>
       <c r="C50" s="3">
         <v>31</v>
@@ -10831,7 +10833,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
       <c r="C51" s="3">
         <v>32</v>
@@ -10867,7 +10869,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="9"/>
       <c r="C52" s="3">
         <v>33</v>
@@ -10903,7 +10905,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="9"/>
       <c r="C53" s="3">
         <v>34</v>
@@ -10939,7 +10941,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="9"/>
       <c r="C54" s="3">
         <v>35</v>
@@ -10975,7 +10977,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="9"/>
       <c r="C55" s="3">
         <v>36</v>
@@ -11011,7 +11013,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="9"/>
       <c r="C56" s="3">
         <v>37</v>
@@ -11047,7 +11049,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="9"/>
       <c r="C57" s="3">
         <v>38</v>
@@ -11083,7 +11085,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="9"/>
       <c r="C58" s="3">
         <v>39</v>
@@ -11119,7 +11121,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="9"/>
       <c r="C59" s="3">
         <v>40</v>
@@ -11155,7 +11157,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="9"/>
       <c r="C60" s="3">
         <v>41</v>
@@ -11191,7 +11193,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="9"/>
       <c r="C61" s="3">
         <v>42</v>
@@ -11227,7 +11229,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="9"/>
       <c r="C62" s="3">
         <v>43</v>
@@ -11263,7 +11265,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="9"/>
       <c r="C63" s="3">
         <v>44</v>
@@ -11299,7 +11301,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="9"/>
       <c r="C64" s="3">
         <v>45</v>
@@ -11335,7 +11337,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="9"/>
       <c r="C65" s="3">
         <v>46</v>
@@ -11371,7 +11373,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="9"/>
       <c r="C66" s="3">
         <v>47</v>
@@ -11407,7 +11409,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="9"/>
       <c r="C67" s="3">
         <v>48</v>
@@ -11443,7 +11445,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="9"/>
       <c r="C68" s="3">
         <v>49</v>
@@ -11479,7 +11481,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="9"/>
       <c r="C69" s="3">
         <v>50</v>
@@ -11515,7 +11517,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="9"/>
       <c r="C70" s="3">
         <v>51</v>
@@ -11551,7 +11553,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="9"/>
       <c r="C71" s="3">
         <v>52</v>
@@ -11587,7 +11589,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="9"/>
       <c r="C72" s="3">
         <v>53</v>
@@ -11623,7 +11625,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="9"/>
       <c r="C73" s="3">
         <v>54</v>
@@ -11659,7 +11661,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="9"/>
       <c r="C74" s="3">
         <v>55</v>
@@ -11695,7 +11697,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="9"/>
       <c r="C75" s="3">
         <v>56</v>
@@ -11731,7 +11733,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="9"/>
       <c r="C76" s="3">
         <v>57</v>
@@ -11767,7 +11769,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="9"/>
       <c r="C77" s="3">
         <v>58</v>
@@ -11803,7 +11805,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="9"/>
       <c r="C78" s="3">
         <v>59</v>
@@ -11839,7 +11841,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="9"/>
       <c r="C79" s="3">
         <v>60</v>
@@ -11875,7 +11877,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="9"/>
       <c r="C80" s="3">
         <v>61</v>
@@ -11911,7 +11913,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="9"/>
       <c r="C81" s="3">
         <v>62</v>
@@ -11947,7 +11949,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="9"/>
       <c r="C82" s="3">
         <v>63</v>
@@ -11983,7 +11985,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="9"/>
       <c r="C83" s="3">
         <v>64</v>
@@ -12019,7 +12021,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="9"/>
       <c r="C84" s="3">
         <v>65</v>
@@ -12055,7 +12057,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="9"/>
       <c r="C85" s="3">
         <v>66</v>
@@ -12091,7 +12093,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="9"/>
       <c r="C86" s="3">
         <v>67</v>
@@ -12127,7 +12129,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="9"/>
       <c r="C87" s="3">
         <v>68</v>
@@ -12163,7 +12165,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="9"/>
       <c r="C88" s="3">
         <v>69</v>
@@ -12199,7 +12201,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="9"/>
       <c r="C89" s="3">
         <v>70</v>
@@ -12235,7 +12237,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="9"/>
       <c r="C90" s="3">
         <v>71</v>
@@ -12271,7 +12273,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="9"/>
       <c r="C91" s="3">
         <v>72</v>
@@ -12307,7 +12309,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="9"/>
       <c r="C92" s="3">
         <v>73</v>
@@ -12343,7 +12345,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="9"/>
       <c r="C93" s="3">
         <v>74</v>
@@ -12379,7 +12381,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="9"/>
       <c r="C94" s="3">
         <v>75</v>
@@ -12415,7 +12417,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
       <c r="C95" s="3">
         <v>76</v>
@@ -12451,7 +12453,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
       <c r="C96" s="3">
         <v>77</v>
@@ -12487,7 +12489,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="97" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="9"/>
       <c r="C97" s="3">
         <v>78</v>
@@ -12523,7 +12525,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="9"/>
       <c r="C98" s="3">
         <v>79</v>
@@ -12559,7 +12561,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="9"/>
       <c r="C99" s="3">
         <v>80</v>
@@ -12595,7 +12597,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="9"/>
       <c r="C100" s="3">
         <v>81</v>
@@ -12631,7 +12633,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="9"/>
       <c r="C101" s="3">
         <v>82</v>
@@ -12667,7 +12669,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="9"/>
       <c r="C102" s="3">
         <v>83</v>
@@ -12703,7 +12705,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="103" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="9"/>
       <c r="C103" s="3">
         <v>84</v>
@@ -12739,7 +12741,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="9"/>
       <c r="C104" s="3">
         <v>85</v>
@@ -12775,7 +12777,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="9"/>
       <c r="C105" s="3">
         <v>86</v>
@@ -12811,7 +12813,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="9"/>
       <c r="C106" s="3">
         <v>87</v>
@@ -12847,7 +12849,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="9"/>
       <c r="C107" s="3">
         <v>88</v>
@@ -12883,7 +12885,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="9"/>
       <c r="C108" s="3">
         <v>89</v>
@@ -12919,7 +12921,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="9"/>
       <c r="C109" s="3">
         <v>90</v>
@@ -12955,7 +12957,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="9"/>
       <c r="C110" s="3">
         <v>91</v>
@@ -12991,7 +12993,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="9"/>
       <c r="C111" s="3">
         <v>92</v>
@@ -13027,7 +13029,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="9"/>
       <c r="C112" s="3">
         <v>93</v>
@@ -13063,7 +13065,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="9"/>
       <c r="C113" s="3">
         <v>94</v>
@@ -13099,7 +13101,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="9"/>
       <c r="C114" s="3">
         <v>95</v>
@@ -13135,7 +13137,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="9"/>
       <c r="C115" s="3">
         <v>96</v>
@@ -13171,7 +13173,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="9"/>
       <c r="C116" s="3">
         <v>97</v>
@@ -13207,7 +13209,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="9"/>
       <c r="C117" s="3">
         <v>98</v>
@@ -13243,7 +13245,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="9"/>
       <c r="C118" s="3">
         <v>99</v>
@@ -13279,7 +13281,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="9"/>
       <c r="C119" s="3">
         <v>100</v>
@@ -13315,7 +13317,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="9"/>
       <c r="C120" s="3">
         <v>101</v>
@@ -13351,7 +13353,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="9"/>
       <c r="C121" s="3">
         <v>102</v>
@@ -13387,7 +13389,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="9"/>
       <c r="C122" s="3">
         <v>103</v>
@@ -13423,7 +13425,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="9"/>
       <c r="C123" s="3">
         <v>104</v>
@@ -13441,7 +13443,7 @@
         <v>4</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>154</v>
@@ -13459,7 +13461,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
       <c r="C124" s="3">
         <v>105</v>
@@ -13477,7 +13479,7 @@
         <v>4</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>154</v>
@@ -13495,7 +13497,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="9"/>
       <c r="C125" s="3">
         <v>106</v>
@@ -13531,7 +13533,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
       <c r="C126" s="3">
         <v>107</v>
@@ -13549,7 +13551,7 @@
         <v>4</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>154</v>
@@ -13567,7 +13569,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="9"/>
       <c r="C127" s="3">
         <v>108</v>
@@ -13603,7 +13605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="9"/>
       <c r="C128" s="3">
         <v>109</v>
@@ -13639,7 +13641,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="129" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="9"/>
       <c r="C129" s="3">
         <v>110</v>
@@ -13675,7 +13677,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="9"/>
       <c r="C130" s="3">
         <v>111</v>
@@ -13711,7 +13713,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="9"/>
       <c r="C131" s="3">
         <v>112</v>
@@ -13729,7 +13731,7 @@
         <v>4</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>154</v>
@@ -13747,7 +13749,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="9"/>
       <c r="C132" s="3">
         <v>113</v>
@@ -13783,7 +13785,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="9"/>
       <c r="C133" s="3">
         <v>114</v>
@@ -13819,7 +13821,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="9"/>
       <c r="C134" s="3">
         <v>115</v>
@@ -13855,7 +13857,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="135" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="9"/>
       <c r="C135" s="3">
         <v>116</v>
@@ -13891,7 +13893,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="9"/>
       <c r="C136" s="3">
         <v>117</v>
@@ -13927,7 +13929,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="9"/>
       <c r="C137" s="3">
         <v>118</v>
@@ -13963,7 +13965,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="138" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="9"/>
       <c r="C138" s="3">
         <v>119</v>
@@ -13995,7 +13997,7 @@
       </c>
       <c r="M138" s="13"/>
     </row>
-    <row r="139" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="9"/>
       <c r="C139" s="3">
         <v>120</v>
@@ -14013,7 +14015,7 @@
         <v>4</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>154</v>
@@ -14031,7 +14033,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="140" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="9"/>
       <c r="C140" s="3">
         <v>121</v>
@@ -14049,7 +14051,7 @@
         <v>4</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I140" s="2" t="s">
         <v>154</v>
@@ -14067,7 +14069,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="141" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="9"/>
       <c r="C141" s="3">
         <v>122</v>
@@ -14085,7 +14087,7 @@
         <v>4</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>154</v>
@@ -14103,7 +14105,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="142" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="9"/>
       <c r="C142" s="3">
         <v>123</v>
@@ -14121,7 +14123,7 @@
         <v>4</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>154</v>
@@ -14139,7 +14141,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="143" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="9"/>
       <c r="C143" s="3">
         <v>124</v>
@@ -14175,7 +14177,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="144" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="9"/>
       <c r="C144" s="3">
         <v>125</v>
@@ -14211,7 +14213,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="9"/>
       <c r="C145" s="3">
         <v>126</v>
@@ -14247,7 +14249,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="9"/>
       <c r="C146" s="3">
         <v>127</v>
@@ -14265,7 +14267,7 @@
         <v>4</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>154</v>
@@ -14283,7 +14285,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="9"/>
       <c r="C147" s="3">
         <v>128</v>
@@ -14319,7 +14321,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="9"/>
       <c r="C148" s="3">
         <v>129</v>
@@ -14337,7 +14339,7 @@
         <v>4</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>154</v>
@@ -14355,7 +14357,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="9"/>
       <c r="C149" s="3">
         <v>130</v>
@@ -14373,7 +14375,7 @@
         <v>4</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>154</v>
@@ -14391,7 +14393,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="150" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="9"/>
       <c r="C150" s="3">
         <v>131</v>
@@ -14406,7 +14408,7 @@
         <v>153</v>
       </c>
       <c r="G150" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>153</v>
@@ -14427,7 +14429,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="9"/>
       <c r="C151" s="3">
         <v>132</v>
@@ -14445,7 +14447,7 @@
         <v>4</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>154</v>
@@ -14463,7 +14465,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="9"/>
       <c r="C152" s="3">
         <v>133</v>
@@ -14481,7 +14483,7 @@
         <v>4</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>154</v>
@@ -14499,7 +14501,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="9"/>
       <c r="C153" s="3">
         <v>134</v>
@@ -14517,7 +14519,7 @@
         <v>4</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>154</v>
@@ -14535,7 +14537,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="9"/>
       <c r="C154" s="3">
         <v>135</v>
@@ -14553,7 +14555,7 @@
         <v>4</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>154</v>
@@ -14571,7 +14573,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="155" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="9"/>
       <c r="C155" s="3">
         <v>136</v>
@@ -14589,7 +14591,7 @@
         <v>4</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>154</v>
@@ -14607,7 +14609,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="9"/>
       <c r="C156" s="3">
         <v>137</v>
@@ -14625,7 +14627,7 @@
         <v>4</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I156" s="2" t="s">
         <v>154</v>
@@ -14643,7 +14645,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="9"/>
       <c r="C157" s="3">
         <v>138</v>
@@ -14661,7 +14663,7 @@
         <v>4</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I157" s="2" t="s">
         <v>154</v>
@@ -14679,7 +14681,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="9"/>
       <c r="C158" s="3">
         <v>139</v>
@@ -14697,7 +14699,7 @@
         <v>4</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>154</v>
@@ -14715,7 +14717,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="9"/>
       <c r="C159" s="3">
         <v>140</v>
@@ -14751,7 +14753,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="9"/>
       <c r="C160" s="3">
         <v>141</v>
@@ -14787,7 +14789,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="9"/>
       <c r="C161" s="3">
         <v>142</v>
@@ -14805,7 +14807,7 @@
         <v>4</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>154</v>
@@ -14823,7 +14825,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="162" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="9"/>
       <c r="C162" s="3">
         <v>143</v>
@@ -14859,7 +14861,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="9"/>
       <c r="C163" s="3">
         <v>144</v>
@@ -14895,7 +14897,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="164" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="9"/>
       <c r="C164" s="3">
         <v>145</v>
@@ -14931,7 +14933,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="9"/>
       <c r="C165" s="3">
         <v>146</v>
@@ -14967,7 +14969,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="166" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="9"/>
       <c r="C166" s="3">
         <v>147</v>
@@ -15003,7 +15005,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="167" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="9"/>
       <c r="C167" s="3">
         <v>148</v>
@@ -15039,7 +15041,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="168" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="9"/>
       <c r="C168" s="3">
         <v>149</v>
@@ -15075,7 +15077,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="169" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="9"/>
       <c r="C169" s="3">
         <v>150</v>
@@ -15111,7 +15113,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="9"/>
       <c r="C170" s="3">
         <v>151</v>
@@ -15149,12 +15151,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D8:L8"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B3:L3"/>
@@ -15168,34 +15164,40 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:L170 D20:F170 B20:B170">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G169 H20:L170 D20:F170 B20:B170">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F170 H20:L170">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"in Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:J15">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>151</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:J16">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:J17">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15234,9 +15236,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.26953125" customWidth="1"/>
+    <col min="1" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -15294,23 +15296,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J153"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>183</v>
       </c>
@@ -15336,10 +15338,10 @@
         <v>170</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>184</v>
       </c>
@@ -15364,11 +15366,11 @@
       <c r="I2" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J2" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <f>Sheet1!C20</f>
         <v>1</v>
@@ -15401,12 +15403,12 @@
         <f>Sheet1!L20</f>
         <v>No</v>
       </c>
-      <c r="J3">
-        <f>IF(Sheet1!M20="models-resource.com",1,IF(Sheet1!M20="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J3" t="str">
+        <f>IF(Sheet1!M20="models-resource.com","1|",IF(Sheet1!M20="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>Sheet1!C21</f>
         <v>2</v>
@@ -15439,12 +15441,12 @@
         <f>Sheet1!L21</f>
         <v>No</v>
       </c>
-      <c r="J4">
-        <f>IF(Sheet1!M21="models-resource.com",1,IF(Sheet1!M21="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J4" t="str">
+        <f>IF(Sheet1!M21="models-resource.com","1|",IF(Sheet1!M21="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>Sheet1!C22</f>
         <v>3</v>
@@ -15477,12 +15479,12 @@
         <f>Sheet1!L22</f>
         <v>No</v>
       </c>
-      <c r="J5">
-        <f>IF(Sheet1!M22="models-resource.com",1,IF(Sheet1!M22="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J5" t="str">
+        <f>IF(Sheet1!M22="models-resource.com","1|",IF(Sheet1!M22="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>Sheet1!C23</f>
         <v>4</v>
@@ -15515,12 +15517,12 @@
         <f>Sheet1!L23</f>
         <v>No</v>
       </c>
-      <c r="J6">
-        <f>IF(Sheet1!M23="models-resource.com",1,IF(Sheet1!M23="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J6" t="str">
+        <f>IF(Sheet1!M23="models-resource.com","1|",IF(Sheet1!M23="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>Sheet1!C24</f>
         <v>5</v>
@@ -15553,12 +15555,12 @@
         <f>Sheet1!L24</f>
         <v>No</v>
       </c>
-      <c r="J7">
-        <f>IF(Sheet1!M24="models-resource.com",1,IF(Sheet1!M24="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J7" t="str">
+        <f>IF(Sheet1!M24="models-resource.com","1|",IF(Sheet1!M24="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>Sheet1!C25</f>
         <v>6</v>
@@ -15591,12 +15593,12 @@
         <f>Sheet1!L25</f>
         <v>No</v>
       </c>
-      <c r="J8">
-        <f>IF(Sheet1!M25="models-resource.com",1,IF(Sheet1!M25="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J8" t="str">
+        <f>IF(Sheet1!M25="models-resource.com","1|",IF(Sheet1!M25="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>Sheet1!C26</f>
         <v>7</v>
@@ -15629,12 +15631,12 @@
         <f>Sheet1!L26</f>
         <v>No</v>
       </c>
-      <c r="J9">
-        <f>IF(Sheet1!M26="models-resource.com",1,IF(Sheet1!M26="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J9" t="str">
+        <f>IF(Sheet1!M26="models-resource.com","1|",IF(Sheet1!M26="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>Sheet1!C27</f>
         <v>8</v>
@@ -15667,12 +15669,12 @@
         <f>Sheet1!L27</f>
         <v>No</v>
       </c>
-      <c r="J10">
-        <f>IF(Sheet1!M27="models-resource.com",1,IF(Sheet1!M27="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J10" t="str">
+        <f>IF(Sheet1!M27="models-resource.com","1|",IF(Sheet1!M27="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>Sheet1!C28</f>
         <v>9</v>
@@ -15705,12 +15707,12 @@
         <f>Sheet1!L28</f>
         <v>No</v>
       </c>
-      <c r="J11">
-        <f>IF(Sheet1!M28="models-resource.com",1,IF(Sheet1!M28="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J11" t="str">
+        <f>IF(Sheet1!M28="models-resource.com","1|",IF(Sheet1!M28="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>Sheet1!C29</f>
         <v>10</v>
@@ -15743,12 +15745,12 @@
         <f>Sheet1!L29</f>
         <v>No</v>
       </c>
-      <c r="J12">
-        <f>IF(Sheet1!M29="models-resource.com",1,IF(Sheet1!M29="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J12" t="str">
+        <f>IF(Sheet1!M29="models-resource.com","1|",IF(Sheet1!M29="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>Sheet1!C30</f>
         <v>11</v>
@@ -15781,12 +15783,12 @@
         <f>Sheet1!L30</f>
         <v>No</v>
       </c>
-      <c r="J13">
-        <f>IF(Sheet1!M30="models-resource.com",1,IF(Sheet1!M30="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J13" t="str">
+        <f>IF(Sheet1!M30="models-resource.com","1|",IF(Sheet1!M30="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>Sheet1!C31</f>
         <v>12</v>
@@ -15819,12 +15821,12 @@
         <f>Sheet1!L31</f>
         <v>No</v>
       </c>
-      <c r="J14">
-        <f>IF(Sheet1!M31="models-resource.com",1,IF(Sheet1!M31="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J14" t="str">
+        <f>IF(Sheet1!M31="models-resource.com","1|",IF(Sheet1!M31="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>Sheet1!C32</f>
         <v>13</v>
@@ -15857,12 +15859,12 @@
         <f>Sheet1!L32</f>
         <v>No</v>
       </c>
-      <c r="J15">
-        <f>IF(Sheet1!M32="models-resource.com",1,IF(Sheet1!M32="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J15" t="str">
+        <f>IF(Sheet1!M32="models-resource.com","1|",IF(Sheet1!M32="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>Sheet1!C33</f>
         <v>14</v>
@@ -15895,12 +15897,12 @@
         <f>Sheet1!L33</f>
         <v>No</v>
       </c>
-      <c r="J16">
-        <f>IF(Sheet1!M33="models-resource.com",1,IF(Sheet1!M33="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J16" t="str">
+        <f>IF(Sheet1!M33="models-resource.com","1|",IF(Sheet1!M33="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>Sheet1!C34</f>
         <v>15</v>
@@ -15933,12 +15935,12 @@
         <f>Sheet1!L34</f>
         <v>No</v>
       </c>
-      <c r="J17">
-        <f>IF(Sheet1!M34="models-resource.com",1,IF(Sheet1!M34="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J17" t="str">
+        <f>IF(Sheet1!M34="models-resource.com","1|",IF(Sheet1!M34="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>Sheet1!C35</f>
         <v>16</v>
@@ -15971,12 +15973,12 @@
         <f>Sheet1!L35</f>
         <v>No</v>
       </c>
-      <c r="J18">
-        <f>IF(Sheet1!M35="models-resource.com",1,IF(Sheet1!M35="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J18" t="str">
+        <f>IF(Sheet1!M35="models-resource.com","1|",IF(Sheet1!M35="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>Sheet1!C36</f>
         <v>17</v>
@@ -16009,12 +16011,12 @@
         <f>Sheet1!L36</f>
         <v>No</v>
       </c>
-      <c r="J19">
-        <f>IF(Sheet1!M36="models-resource.com",1,IF(Sheet1!M36="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J19" t="str">
+        <f>IF(Sheet1!M36="models-resource.com","1|",IF(Sheet1!M36="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>Sheet1!C37</f>
         <v>18</v>
@@ -16047,12 +16049,12 @@
         <f>Sheet1!L37</f>
         <v>No</v>
       </c>
-      <c r="J20">
-        <f>IF(Sheet1!M37="models-resource.com",1,IF(Sheet1!M37="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J20" t="str">
+        <f>IF(Sheet1!M37="models-resource.com","1|",IF(Sheet1!M37="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>Sheet1!C38</f>
         <v>19</v>
@@ -16085,12 +16087,12 @@
         <f>Sheet1!L38</f>
         <v>No</v>
       </c>
-      <c r="J21">
-        <f>IF(Sheet1!M38="models-resource.com",1,IF(Sheet1!M38="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J21" t="str">
+        <f>IF(Sheet1!M38="models-resource.com","1|",IF(Sheet1!M38="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>Sheet1!C39</f>
         <v>20</v>
@@ -16123,12 +16125,12 @@
         <f>Sheet1!L39</f>
         <v>No</v>
       </c>
-      <c r="J22">
-        <f>IF(Sheet1!M39="models-resource.com",1,IF(Sheet1!M39="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J22" t="str">
+        <f>IF(Sheet1!M39="models-resource.com","1|",IF(Sheet1!M39="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>Sheet1!C40</f>
         <v>21</v>
@@ -16161,12 +16163,12 @@
         <f>Sheet1!L40</f>
         <v>No</v>
       </c>
-      <c r="J23">
-        <f>IF(Sheet1!M40="models-resource.com",1,IF(Sheet1!M40="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J23" t="str">
+        <f>IF(Sheet1!M40="models-resource.com","1|",IF(Sheet1!M40="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>Sheet1!C41</f>
         <v>22</v>
@@ -16199,12 +16201,12 @@
         <f>Sheet1!L41</f>
         <v>No</v>
       </c>
-      <c r="J24">
-        <f>IF(Sheet1!M41="models-resource.com",1,IF(Sheet1!M41="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J24" t="str">
+        <f>IF(Sheet1!M41="models-resource.com","1|",IF(Sheet1!M41="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25">
         <f>Sheet1!C42</f>
         <v>23</v>
@@ -16237,12 +16239,12 @@
         <f>Sheet1!L42</f>
         <v>No</v>
       </c>
-      <c r="J25">
-        <f>IF(Sheet1!M42="models-resource.com",1,IF(Sheet1!M42="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J25" t="str">
+        <f>IF(Sheet1!M42="models-resource.com","1|",IF(Sheet1!M42="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>Sheet1!C43</f>
         <v>24</v>
@@ -16275,12 +16277,12 @@
         <f>Sheet1!L43</f>
         <v>No</v>
       </c>
-      <c r="J26">
-        <f>IF(Sheet1!M43="models-resource.com",1,IF(Sheet1!M43="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J26" t="str">
+        <f>IF(Sheet1!M43="models-resource.com","1|",IF(Sheet1!M43="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>Sheet1!C44</f>
         <v>25</v>
@@ -16313,12 +16315,12 @@
         <f>Sheet1!L44</f>
         <v>No</v>
       </c>
-      <c r="J27">
-        <f>IF(Sheet1!M44="models-resource.com",1,IF(Sheet1!M44="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J27" t="str">
+        <f>IF(Sheet1!M44="models-resource.com","1|",IF(Sheet1!M44="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28">
         <f>Sheet1!C45</f>
         <v>26</v>
@@ -16351,12 +16353,12 @@
         <f>Sheet1!L45</f>
         <v>No</v>
       </c>
-      <c r="J28">
-        <f>IF(Sheet1!M45="models-resource.com",1,IF(Sheet1!M45="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J28" t="str">
+        <f>IF(Sheet1!M45="models-resource.com","1|",IF(Sheet1!M45="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29">
         <f>Sheet1!C46</f>
         <v>27</v>
@@ -16389,12 +16391,12 @@
         <f>Sheet1!L46</f>
         <v>No</v>
       </c>
-      <c r="J29">
-        <f>IF(Sheet1!M46="models-resource.com",1,IF(Sheet1!M46="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J29" t="str">
+        <f>IF(Sheet1!M46="models-resource.com","1|",IF(Sheet1!M46="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30">
         <f>Sheet1!C47</f>
         <v>28</v>
@@ -16427,12 +16429,12 @@
         <f>Sheet1!L47</f>
         <v>No</v>
       </c>
-      <c r="J30">
-        <f>IF(Sheet1!M47="models-resource.com",1,IF(Sheet1!M47="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J30" t="str">
+        <f>IF(Sheet1!M47="models-resource.com","1|",IF(Sheet1!M47="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>Sheet1!C48</f>
         <v>29</v>
@@ -16465,12 +16467,12 @@
         <f>Sheet1!L48</f>
         <v>No</v>
       </c>
-      <c r="J31">
-        <f>IF(Sheet1!M48="models-resource.com",1,IF(Sheet1!M48="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J31" t="str">
+        <f>IF(Sheet1!M48="models-resource.com","1|",IF(Sheet1!M48="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32">
         <f>Sheet1!C49</f>
         <v>30</v>
@@ -16503,12 +16505,12 @@
         <f>Sheet1!L49</f>
         <v>No</v>
       </c>
-      <c r="J32">
-        <f>IF(Sheet1!M49="models-resource.com",1,IF(Sheet1!M49="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J32" t="str">
+        <f>IF(Sheet1!M49="models-resource.com","1|",IF(Sheet1!M49="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>Sheet1!C50</f>
         <v>31</v>
@@ -16541,12 +16543,12 @@
         <f>Sheet1!L50</f>
         <v>No</v>
       </c>
-      <c r="J33">
-        <f>IF(Sheet1!M50="models-resource.com",1,IF(Sheet1!M50="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J33" t="str">
+        <f>IF(Sheet1!M50="models-resource.com","1|",IF(Sheet1!M50="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34">
         <f>Sheet1!C51</f>
         <v>32</v>
@@ -16579,12 +16581,12 @@
         <f>Sheet1!L51</f>
         <v>No</v>
       </c>
-      <c r="J34">
-        <f>IF(Sheet1!M51="models-resource.com",1,IF(Sheet1!M51="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J34" t="str">
+        <f>IF(Sheet1!M51="models-resource.com","1|",IF(Sheet1!M51="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35">
         <f>Sheet1!C52</f>
         <v>33</v>
@@ -16617,12 +16619,12 @@
         <f>Sheet1!L52</f>
         <v>No</v>
       </c>
-      <c r="J35">
-        <f>IF(Sheet1!M52="models-resource.com",1,IF(Sheet1!M52="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J35" t="str">
+        <f>IF(Sheet1!M52="models-resource.com","1|",IF(Sheet1!M52="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36">
         <f>Sheet1!C53</f>
         <v>34</v>
@@ -16655,12 +16657,12 @@
         <f>Sheet1!L53</f>
         <v>No</v>
       </c>
-      <c r="J36">
-        <f>IF(Sheet1!M53="models-resource.com",1,IF(Sheet1!M53="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J36" t="str">
+        <f>IF(Sheet1!M53="models-resource.com","1|",IF(Sheet1!M53="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37">
         <f>Sheet1!C54</f>
         <v>35</v>
@@ -16693,12 +16695,12 @@
         <f>Sheet1!L54</f>
         <v>No</v>
       </c>
-      <c r="J37">
-        <f>IF(Sheet1!M54="models-resource.com",1,IF(Sheet1!M54="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J37" t="str">
+        <f>IF(Sheet1!M54="models-resource.com","1|",IF(Sheet1!M54="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38">
         <f>Sheet1!C55</f>
         <v>36</v>
@@ -16731,12 +16733,12 @@
         <f>Sheet1!L55</f>
         <v>No</v>
       </c>
-      <c r="J38">
-        <f>IF(Sheet1!M55="models-resource.com",1,IF(Sheet1!M55="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J38" t="str">
+        <f>IF(Sheet1!M55="models-resource.com","1|",IF(Sheet1!M55="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39">
         <f>Sheet1!C56</f>
         <v>37</v>
@@ -16769,12 +16771,12 @@
         <f>Sheet1!L56</f>
         <v>No</v>
       </c>
-      <c r="J39">
-        <f>IF(Sheet1!M56="models-resource.com",1,IF(Sheet1!M56="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J39" t="str">
+        <f>IF(Sheet1!M56="models-resource.com","1|",IF(Sheet1!M56="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40">
         <f>Sheet1!C57</f>
         <v>38</v>
@@ -16807,12 +16809,12 @@
         <f>Sheet1!L57</f>
         <v>No</v>
       </c>
-      <c r="J40">
-        <f>IF(Sheet1!M57="models-resource.com",1,IF(Sheet1!M57="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J40" t="str">
+        <f>IF(Sheet1!M57="models-resource.com","1|",IF(Sheet1!M57="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41">
         <f>Sheet1!C58</f>
         <v>39</v>
@@ -16845,12 +16847,12 @@
         <f>Sheet1!L58</f>
         <v>No</v>
       </c>
-      <c r="J41">
-        <f>IF(Sheet1!M58="models-resource.com",1,IF(Sheet1!M58="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J41" t="str">
+        <f>IF(Sheet1!M58="models-resource.com","1|",IF(Sheet1!M58="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42">
         <f>Sheet1!C59</f>
         <v>40</v>
@@ -16883,12 +16885,12 @@
         <f>Sheet1!L59</f>
         <v>No</v>
       </c>
-      <c r="J42">
-        <f>IF(Sheet1!M59="models-resource.com",1,IF(Sheet1!M59="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J42" t="str">
+        <f>IF(Sheet1!M59="models-resource.com","1|",IF(Sheet1!M59="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43">
         <f>Sheet1!C60</f>
         <v>41</v>
@@ -16921,12 +16923,12 @@
         <f>Sheet1!L60</f>
         <v>No</v>
       </c>
-      <c r="J43">
-        <f>IF(Sheet1!M60="models-resource.com",1,IF(Sheet1!M60="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J43" t="str">
+        <f>IF(Sheet1!M60="models-resource.com","1|",IF(Sheet1!M60="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44">
         <f>Sheet1!C61</f>
         <v>42</v>
@@ -16959,12 +16961,12 @@
         <f>Sheet1!L61</f>
         <v>No</v>
       </c>
-      <c r="J44">
-        <f>IF(Sheet1!M61="models-resource.com",1,IF(Sheet1!M61="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J44" t="str">
+        <f>IF(Sheet1!M61="models-resource.com","1|",IF(Sheet1!M61="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45">
         <f>Sheet1!C62</f>
         <v>43</v>
@@ -16997,12 +16999,12 @@
         <f>Sheet1!L62</f>
         <v>No</v>
       </c>
-      <c r="J45">
-        <f>IF(Sheet1!M62="models-resource.com",1,IF(Sheet1!M62="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J45" t="str">
+        <f>IF(Sheet1!M62="models-resource.com","1|",IF(Sheet1!M62="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46">
         <f>Sheet1!C63</f>
         <v>44</v>
@@ -17035,12 +17037,12 @@
         <f>Sheet1!L63</f>
         <v>No</v>
       </c>
-      <c r="J46">
-        <f>IF(Sheet1!M63="models-resource.com",1,IF(Sheet1!M63="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J46" t="str">
+        <f>IF(Sheet1!M63="models-resource.com","1|",IF(Sheet1!M63="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47">
         <f>Sheet1!C64</f>
         <v>45</v>
@@ -17073,12 +17075,12 @@
         <f>Sheet1!L64</f>
         <v>No</v>
       </c>
-      <c r="J47">
-        <f>IF(Sheet1!M64="models-resource.com",1,IF(Sheet1!M64="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J47" t="str">
+        <f>IF(Sheet1!M64="models-resource.com","1|",IF(Sheet1!M64="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48">
         <f>Sheet1!C65</f>
         <v>46</v>
@@ -17111,12 +17113,12 @@
         <f>Sheet1!L65</f>
         <v>No</v>
       </c>
-      <c r="J48">
-        <f>IF(Sheet1!M65="models-resource.com",1,IF(Sheet1!M65="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J48" t="str">
+        <f>IF(Sheet1!M65="models-resource.com","1|",IF(Sheet1!M65="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49">
         <f>Sheet1!C66</f>
         <v>47</v>
@@ -17149,12 +17151,12 @@
         <f>Sheet1!L66</f>
         <v>No</v>
       </c>
-      <c r="J49">
-        <f>IF(Sheet1!M66="models-resource.com",1,IF(Sheet1!M66="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J49" t="str">
+        <f>IF(Sheet1!M66="models-resource.com","1|",IF(Sheet1!M66="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50">
         <f>Sheet1!C67</f>
         <v>48</v>
@@ -17187,12 +17189,12 @@
         <f>Sheet1!L67</f>
         <v>No</v>
       </c>
-      <c r="J50">
-        <f>IF(Sheet1!M67="models-resource.com",1,IF(Sheet1!M67="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J50" t="str">
+        <f>IF(Sheet1!M67="models-resource.com","1|",IF(Sheet1!M67="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51">
         <f>Sheet1!C68</f>
         <v>49</v>
@@ -17225,12 +17227,12 @@
         <f>Sheet1!L68</f>
         <v>No</v>
       </c>
-      <c r="J51">
-        <f>IF(Sheet1!M68="models-resource.com",1,IF(Sheet1!M68="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J51" t="str">
+        <f>IF(Sheet1!M68="models-resource.com","1|",IF(Sheet1!M68="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52">
         <f>Sheet1!C69</f>
         <v>50</v>
@@ -17263,12 +17265,12 @@
         <f>Sheet1!L69</f>
         <v>No</v>
       </c>
-      <c r="J52">
-        <f>IF(Sheet1!M69="models-resource.com",1,IF(Sheet1!M69="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J52" t="str">
+        <f>IF(Sheet1!M69="models-resource.com","1|",IF(Sheet1!M69="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53">
         <f>Sheet1!C70</f>
         <v>51</v>
@@ -17301,12 +17303,12 @@
         <f>Sheet1!L70</f>
         <v>No</v>
       </c>
-      <c r="J53">
-        <f>IF(Sheet1!M70="models-resource.com",1,IF(Sheet1!M70="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J53" t="str">
+        <f>IF(Sheet1!M70="models-resource.com","1|",IF(Sheet1!M70="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54">
         <f>Sheet1!C71</f>
         <v>52</v>
@@ -17339,12 +17341,12 @@
         <f>Sheet1!L71</f>
         <v>No</v>
       </c>
-      <c r="J54">
-        <f>IF(Sheet1!M71="models-resource.com",1,IF(Sheet1!M71="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J54" t="str">
+        <f>IF(Sheet1!M71="models-resource.com","1|",IF(Sheet1!M71="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55">
         <f>Sheet1!C72</f>
         <v>53</v>
@@ -17377,12 +17379,12 @@
         <f>Sheet1!L72</f>
         <v>No</v>
       </c>
-      <c r="J55">
-        <f>IF(Sheet1!M72="models-resource.com",1,IF(Sheet1!M72="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J55" t="str">
+        <f>IF(Sheet1!M72="models-resource.com","1|",IF(Sheet1!M72="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56">
         <f>Sheet1!C73</f>
         <v>54</v>
@@ -17415,12 +17417,12 @@
         <f>Sheet1!L73</f>
         <v>No</v>
       </c>
-      <c r="J56">
-        <f>IF(Sheet1!M73="models-resource.com",1,IF(Sheet1!M73="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J56" t="str">
+        <f>IF(Sheet1!M73="models-resource.com","1|",IF(Sheet1!M73="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57">
         <f>Sheet1!C74</f>
         <v>55</v>
@@ -17453,12 +17455,12 @@
         <f>Sheet1!L74</f>
         <v>No</v>
       </c>
-      <c r="J57">
-        <f>IF(Sheet1!M74="models-resource.com",1,IF(Sheet1!M74="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J57" t="str">
+        <f>IF(Sheet1!M74="models-resource.com","1|",IF(Sheet1!M74="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58">
         <f>Sheet1!C75</f>
         <v>56</v>
@@ -17491,12 +17493,12 @@
         <f>Sheet1!L75</f>
         <v>No</v>
       </c>
-      <c r="J58">
-        <f>IF(Sheet1!M75="models-resource.com",1,IF(Sheet1!M75="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J58" t="str">
+        <f>IF(Sheet1!M75="models-resource.com","1|",IF(Sheet1!M75="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59">
         <f>Sheet1!C76</f>
         <v>57</v>
@@ -17529,12 +17531,12 @@
         <f>Sheet1!L76</f>
         <v>No</v>
       </c>
-      <c r="J59">
-        <f>IF(Sheet1!M76="models-resource.com",1,IF(Sheet1!M76="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J59" t="str">
+        <f>IF(Sheet1!M76="models-resource.com","1|",IF(Sheet1!M76="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60">
         <f>Sheet1!C77</f>
         <v>58</v>
@@ -17567,12 +17569,12 @@
         <f>Sheet1!L77</f>
         <v>No</v>
       </c>
-      <c r="J60">
-        <f>IF(Sheet1!M77="models-resource.com",1,IF(Sheet1!M77="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J60" t="str">
+        <f>IF(Sheet1!M77="models-resource.com","1|",IF(Sheet1!M77="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61">
         <f>Sheet1!C78</f>
         <v>59</v>
@@ -17605,12 +17607,12 @@
         <f>Sheet1!L78</f>
         <v>No</v>
       </c>
-      <c r="J61">
-        <f>IF(Sheet1!M78="models-resource.com",1,IF(Sheet1!M78="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J61" t="str">
+        <f>IF(Sheet1!M78="models-resource.com","1|",IF(Sheet1!M78="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62">
         <f>Sheet1!C79</f>
         <v>60</v>
@@ -17643,12 +17645,12 @@
         <f>Sheet1!L79</f>
         <v>No</v>
       </c>
-      <c r="J62">
-        <f>IF(Sheet1!M79="models-resource.com",1,IF(Sheet1!M79="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J62" t="str">
+        <f>IF(Sheet1!M79="models-resource.com","1|",IF(Sheet1!M79="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63">
         <f>Sheet1!C80</f>
         <v>61</v>
@@ -17681,12 +17683,12 @@
         <f>Sheet1!L80</f>
         <v>No</v>
       </c>
-      <c r="J63">
-        <f>IF(Sheet1!M80="models-resource.com",1,IF(Sheet1!M80="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J63" t="str">
+        <f>IF(Sheet1!M80="models-resource.com","1|",IF(Sheet1!M80="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64">
         <f>Sheet1!C81</f>
         <v>62</v>
@@ -17719,12 +17721,12 @@
         <f>Sheet1!L81</f>
         <v>No</v>
       </c>
-      <c r="J64">
-        <f>IF(Sheet1!M81="models-resource.com",1,IF(Sheet1!M81="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J64" t="str">
+        <f>IF(Sheet1!M81="models-resource.com","1|",IF(Sheet1!M81="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65">
         <f>Sheet1!C82</f>
         <v>63</v>
@@ -17757,12 +17759,12 @@
         <f>Sheet1!L82</f>
         <v>No</v>
       </c>
-      <c r="J65">
-        <f>IF(Sheet1!M82="models-resource.com",1,IF(Sheet1!M82="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J65" t="str">
+        <f>IF(Sheet1!M82="models-resource.com","1|",IF(Sheet1!M82="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66">
         <f>Sheet1!C83</f>
         <v>64</v>
@@ -17795,12 +17797,12 @@
         <f>Sheet1!L83</f>
         <v>No</v>
       </c>
-      <c r="J66">
-        <f>IF(Sheet1!M83="models-resource.com",1,IF(Sheet1!M83="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J66" t="str">
+        <f>IF(Sheet1!M83="models-resource.com","1|",IF(Sheet1!M83="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67">
         <f>Sheet1!C84</f>
         <v>65</v>
@@ -17833,12 +17835,12 @@
         <f>Sheet1!L84</f>
         <v>No</v>
       </c>
-      <c r="J67">
-        <f>IF(Sheet1!M84="models-resource.com",1,IF(Sheet1!M84="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J67" t="str">
+        <f>IF(Sheet1!M84="models-resource.com","1|",IF(Sheet1!M84="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68">
         <f>Sheet1!C85</f>
         <v>66</v>
@@ -17871,12 +17873,12 @@
         <f>Sheet1!L85</f>
         <v>No</v>
       </c>
-      <c r="J68">
-        <f>IF(Sheet1!M85="models-resource.com",1,IF(Sheet1!M85="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J68" t="str">
+        <f>IF(Sheet1!M85="models-resource.com","1|",IF(Sheet1!M85="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69">
         <f>Sheet1!C86</f>
         <v>67</v>
@@ -17909,12 +17911,12 @@
         <f>Sheet1!L86</f>
         <v>No</v>
       </c>
-      <c r="J69">
-        <f>IF(Sheet1!M86="models-resource.com",1,IF(Sheet1!M86="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J69" t="str">
+        <f>IF(Sheet1!M86="models-resource.com","1|",IF(Sheet1!M86="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70">
         <f>Sheet1!C87</f>
         <v>68</v>
@@ -17947,12 +17949,12 @@
         <f>Sheet1!L87</f>
         <v>No</v>
       </c>
-      <c r="J70">
-        <f>IF(Sheet1!M87="models-resource.com",1,IF(Sheet1!M87="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J70" t="str">
+        <f>IF(Sheet1!M87="models-resource.com","1|",IF(Sheet1!M87="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71">
         <f>Sheet1!C88</f>
         <v>69</v>
@@ -17985,12 +17987,12 @@
         <f>Sheet1!L88</f>
         <v>No</v>
       </c>
-      <c r="J71">
-        <f>IF(Sheet1!M88="models-resource.com",1,IF(Sheet1!M88="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J71" t="str">
+        <f>IF(Sheet1!M88="models-resource.com","1|",IF(Sheet1!M88="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72">
         <f>Sheet1!C89</f>
         <v>70</v>
@@ -18023,12 +18025,12 @@
         <f>Sheet1!L89</f>
         <v>No</v>
       </c>
-      <c r="J72">
-        <f>IF(Sheet1!M89="models-resource.com",1,IF(Sheet1!M89="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J72" t="str">
+        <f>IF(Sheet1!M89="models-resource.com","1|",IF(Sheet1!M89="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73">
         <f>Sheet1!C90</f>
         <v>71</v>
@@ -18061,12 +18063,12 @@
         <f>Sheet1!L90</f>
         <v>No</v>
       </c>
-      <c r="J73">
-        <f>IF(Sheet1!M90="models-resource.com",1,IF(Sheet1!M90="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J73" t="str">
+        <f>IF(Sheet1!M90="models-resource.com","1|",IF(Sheet1!M90="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74">
         <f>Sheet1!C91</f>
         <v>72</v>
@@ -18099,12 +18101,12 @@
         <f>Sheet1!L91</f>
         <v>No</v>
       </c>
-      <c r="J74">
-        <f>IF(Sheet1!M91="models-resource.com",1,IF(Sheet1!M91="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J74" t="str">
+        <f>IF(Sheet1!M91="models-resource.com","1|",IF(Sheet1!M91="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75">
         <f>Sheet1!C92</f>
         <v>73</v>
@@ -18137,12 +18139,12 @@
         <f>Sheet1!L92</f>
         <v>No</v>
       </c>
-      <c r="J75">
-        <f>IF(Sheet1!M92="models-resource.com",1,IF(Sheet1!M92="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J75" t="str">
+        <f>IF(Sheet1!M92="models-resource.com","1|",IF(Sheet1!M92="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76">
         <f>Sheet1!C93</f>
         <v>74</v>
@@ -18175,12 +18177,12 @@
         <f>Sheet1!L93</f>
         <v>No</v>
       </c>
-      <c r="J76">
-        <f>IF(Sheet1!M93="models-resource.com",1,IF(Sheet1!M93="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J76" t="str">
+        <f>IF(Sheet1!M93="models-resource.com","1|",IF(Sheet1!M93="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77">
         <f>Sheet1!C94</f>
         <v>75</v>
@@ -18213,12 +18215,12 @@
         <f>Sheet1!L94</f>
         <v>No</v>
       </c>
-      <c r="J77">
-        <f>IF(Sheet1!M94="models-resource.com",1,IF(Sheet1!M94="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J77" t="str">
+        <f>IF(Sheet1!M94="models-resource.com","1|",IF(Sheet1!M94="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78">
         <f>Sheet1!C95</f>
         <v>76</v>
@@ -18251,12 +18253,12 @@
         <f>Sheet1!L95</f>
         <v>No</v>
       </c>
-      <c r="J78">
-        <f>IF(Sheet1!M95="models-resource.com",1,IF(Sheet1!M95="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J78" t="str">
+        <f>IF(Sheet1!M95="models-resource.com","1|",IF(Sheet1!M95="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79">
         <f>Sheet1!C96</f>
         <v>77</v>
@@ -18289,12 +18291,12 @@
         <f>Sheet1!L96</f>
         <v>No</v>
       </c>
-      <c r="J79">
-        <f>IF(Sheet1!M96="models-resource.com",1,IF(Sheet1!M96="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J79" t="str">
+        <f>IF(Sheet1!M96="models-resource.com","1|",IF(Sheet1!M96="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80">
         <f>Sheet1!C97</f>
         <v>78</v>
@@ -18327,12 +18329,12 @@
         <f>Sheet1!L97</f>
         <v>No</v>
       </c>
-      <c r="J80">
-        <f>IF(Sheet1!M97="models-resource.com",1,IF(Sheet1!M97="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J80" t="str">
+        <f>IF(Sheet1!M97="models-resource.com","1|",IF(Sheet1!M97="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81">
         <f>Sheet1!C98</f>
         <v>79</v>
@@ -18365,12 +18367,12 @@
         <f>Sheet1!L98</f>
         <v>No</v>
       </c>
-      <c r="J81">
-        <f>IF(Sheet1!M98="models-resource.com",1,IF(Sheet1!M98="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J81" t="str">
+        <f>IF(Sheet1!M98="models-resource.com","1|",IF(Sheet1!M98="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82">
         <f>Sheet1!C99</f>
         <v>80</v>
@@ -18403,12 +18405,12 @@
         <f>Sheet1!L99</f>
         <v>No</v>
       </c>
-      <c r="J82">
-        <f>IF(Sheet1!M99="models-resource.com",1,IF(Sheet1!M99="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J82" t="str">
+        <f>IF(Sheet1!M99="models-resource.com","1|",IF(Sheet1!M99="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83">
         <f>Sheet1!C100</f>
         <v>81</v>
@@ -18441,12 +18443,12 @@
         <f>Sheet1!L100</f>
         <v>No</v>
       </c>
-      <c r="J83">
-        <f>IF(Sheet1!M100="models-resource.com",1,IF(Sheet1!M100="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J83" t="str">
+        <f>IF(Sheet1!M100="models-resource.com","1|",IF(Sheet1!M100="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84">
         <f>Sheet1!C101</f>
         <v>82</v>
@@ -18479,12 +18481,12 @@
         <f>Sheet1!L101</f>
         <v>No</v>
       </c>
-      <c r="J84">
-        <f>IF(Sheet1!M101="models-resource.com",1,IF(Sheet1!M101="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J84" t="str">
+        <f>IF(Sheet1!M101="models-resource.com","1|",IF(Sheet1!M101="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85">
         <f>Sheet1!C102</f>
         <v>83</v>
@@ -18517,12 +18519,12 @@
         <f>Sheet1!L102</f>
         <v>No</v>
       </c>
-      <c r="J85">
-        <f>IF(Sheet1!M102="models-resource.com",1,IF(Sheet1!M102="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J85" t="str">
+        <f>IF(Sheet1!M102="models-resource.com","1|",IF(Sheet1!M102="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86">
         <f>Sheet1!C103</f>
         <v>84</v>
@@ -18555,12 +18557,12 @@
         <f>Sheet1!L103</f>
         <v>No</v>
       </c>
-      <c r="J86">
-        <f>IF(Sheet1!M103="models-resource.com",1,IF(Sheet1!M103="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J86" t="str">
+        <f>IF(Sheet1!M103="models-resource.com","1|",IF(Sheet1!M103="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87">
         <f>Sheet1!C104</f>
         <v>85</v>
@@ -18593,12 +18595,12 @@
         <f>Sheet1!L104</f>
         <v>No</v>
       </c>
-      <c r="J87">
-        <f>IF(Sheet1!M104="models-resource.com",1,IF(Sheet1!M104="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J87" t="str">
+        <f>IF(Sheet1!M104="models-resource.com","1|",IF(Sheet1!M104="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88">
         <f>Sheet1!C105</f>
         <v>86</v>
@@ -18631,12 +18633,12 @@
         <f>Sheet1!L105</f>
         <v>No</v>
       </c>
-      <c r="J88">
-        <f>IF(Sheet1!M105="models-resource.com",1,IF(Sheet1!M105="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J88" t="str">
+        <f>IF(Sheet1!M105="models-resource.com","1|",IF(Sheet1!M105="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89">
         <f>Sheet1!C106</f>
         <v>87</v>
@@ -18669,12 +18671,12 @@
         <f>Sheet1!L106</f>
         <v>No</v>
       </c>
-      <c r="J89">
-        <f>IF(Sheet1!M106="models-resource.com",1,IF(Sheet1!M106="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J89" t="str">
+        <f>IF(Sheet1!M106="models-resource.com","1|",IF(Sheet1!M106="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90">
         <f>Sheet1!C107</f>
         <v>88</v>
@@ -18707,12 +18709,12 @@
         <f>Sheet1!L107</f>
         <v>No</v>
       </c>
-      <c r="J90">
-        <f>IF(Sheet1!M107="models-resource.com",1,IF(Sheet1!M107="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J90" t="str">
+        <f>IF(Sheet1!M107="models-resource.com","1|",IF(Sheet1!M107="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91">
         <f>Sheet1!C108</f>
         <v>89</v>
@@ -18745,12 +18747,12 @@
         <f>Sheet1!L108</f>
         <v>No</v>
       </c>
-      <c r="J91">
-        <f>IF(Sheet1!M108="models-resource.com",1,IF(Sheet1!M108="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J91" t="str">
+        <f>IF(Sheet1!M108="models-resource.com","1|",IF(Sheet1!M108="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92">
         <f>Sheet1!C109</f>
         <v>90</v>
@@ -18783,12 +18785,12 @@
         <f>Sheet1!L109</f>
         <v>No</v>
       </c>
-      <c r="J92">
-        <f>IF(Sheet1!M109="models-resource.com",1,IF(Sheet1!M109="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J92" t="str">
+        <f>IF(Sheet1!M109="models-resource.com","1|",IF(Sheet1!M109="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93">
         <f>Sheet1!C110</f>
         <v>91</v>
@@ -18821,12 +18823,12 @@
         <f>Sheet1!L110</f>
         <v>No</v>
       </c>
-      <c r="J93">
-        <f>IF(Sheet1!M110="models-resource.com",1,IF(Sheet1!M110="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J93" t="str">
+        <f>IF(Sheet1!M110="models-resource.com","1|",IF(Sheet1!M110="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94">
         <f>Sheet1!C111</f>
         <v>92</v>
@@ -18859,12 +18861,12 @@
         <f>Sheet1!L111</f>
         <v>No</v>
       </c>
-      <c r="J94">
-        <f>IF(Sheet1!M111="models-resource.com",1,IF(Sheet1!M111="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J94" t="str">
+        <f>IF(Sheet1!M111="models-resource.com","1|",IF(Sheet1!M111="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95">
         <f>Sheet1!C112</f>
         <v>93</v>
@@ -18897,12 +18899,12 @@
         <f>Sheet1!L112</f>
         <v>No</v>
       </c>
-      <c r="J95">
-        <f>IF(Sheet1!M112="models-resource.com",1,IF(Sheet1!M112="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J95" t="str">
+        <f>IF(Sheet1!M112="models-resource.com","1|",IF(Sheet1!M112="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96">
         <f>Sheet1!C113</f>
         <v>94</v>
@@ -18935,12 +18937,12 @@
         <f>Sheet1!L113</f>
         <v>No</v>
       </c>
-      <c r="J96">
-        <f>IF(Sheet1!M113="models-resource.com",1,IF(Sheet1!M113="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J96" t="str">
+        <f>IF(Sheet1!M113="models-resource.com","1|",IF(Sheet1!M113="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97">
         <f>Sheet1!C114</f>
         <v>95</v>
@@ -18973,12 +18975,12 @@
         <f>Sheet1!L114</f>
         <v>No</v>
       </c>
-      <c r="J97">
-        <f>IF(Sheet1!M114="models-resource.com",1,IF(Sheet1!M114="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J97" t="str">
+        <f>IF(Sheet1!M114="models-resource.com","1|",IF(Sheet1!M114="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98">
         <f>Sheet1!C115</f>
         <v>96</v>
@@ -19011,12 +19013,12 @@
         <f>Sheet1!L115</f>
         <v>No</v>
       </c>
-      <c r="J98">
-        <f>IF(Sheet1!M115="models-resource.com",1,IF(Sheet1!M115="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J98" t="str">
+        <f>IF(Sheet1!M115="models-resource.com","1|",IF(Sheet1!M115="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99">
         <f>Sheet1!C116</f>
         <v>97</v>
@@ -19049,12 +19051,12 @@
         <f>Sheet1!L116</f>
         <v>No</v>
       </c>
-      <c r="J99">
-        <f>IF(Sheet1!M116="models-resource.com",1,IF(Sheet1!M116="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J99" t="str">
+        <f>IF(Sheet1!M116="models-resource.com","1|",IF(Sheet1!M116="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100">
         <f>Sheet1!C117</f>
         <v>98</v>
@@ -19087,12 +19089,12 @@
         <f>Sheet1!L117</f>
         <v>No</v>
       </c>
-      <c r="J100">
-        <f>IF(Sheet1!M117="models-resource.com",1,IF(Sheet1!M117="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J100" t="str">
+        <f>IF(Sheet1!M117="models-resource.com","1|",IF(Sheet1!M117="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101">
         <f>Sheet1!C118</f>
         <v>99</v>
@@ -19125,12 +19127,12 @@
         <f>Sheet1!L118</f>
         <v>No</v>
       </c>
-      <c r="J101">
-        <f>IF(Sheet1!M118="models-resource.com",1,IF(Sheet1!M118="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J101" t="str">
+        <f>IF(Sheet1!M118="models-resource.com","1|",IF(Sheet1!M118="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102">
         <f>Sheet1!C119</f>
         <v>100</v>
@@ -19163,12 +19165,12 @@
         <f>Sheet1!L119</f>
         <v>No</v>
       </c>
-      <c r="J102">
-        <f>IF(Sheet1!M119="models-resource.com",1,IF(Sheet1!M119="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J102" t="str">
+        <f>IF(Sheet1!M119="models-resource.com","1|",IF(Sheet1!M119="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103">
         <f>Sheet1!C120</f>
         <v>101</v>
@@ -19201,12 +19203,12 @@
         <f>Sheet1!L120</f>
         <v>No</v>
       </c>
-      <c r="J103">
-        <f>IF(Sheet1!M120="models-resource.com",1,IF(Sheet1!M120="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J103" t="str">
+        <f>IF(Sheet1!M120="models-resource.com","1|",IF(Sheet1!M120="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104">
         <f>Sheet1!C121</f>
         <v>102</v>
@@ -19239,12 +19241,12 @@
         <f>Sheet1!L121</f>
         <v>No</v>
       </c>
-      <c r="J104">
-        <f>IF(Sheet1!M121="models-resource.com",1,IF(Sheet1!M121="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J104" t="str">
+        <f>IF(Sheet1!M121="models-resource.com","1|",IF(Sheet1!M121="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105">
         <f>Sheet1!C122</f>
         <v>103</v>
@@ -19277,12 +19279,12 @@
         <f>Sheet1!L122</f>
         <v>No</v>
       </c>
-      <c r="J105">
-        <f>IF(Sheet1!M122="models-resource.com",1,IF(Sheet1!M122="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J105" t="str">
+        <f>IF(Sheet1!M122="models-resource.com","1|",IF(Sheet1!M122="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106">
         <f>Sheet1!C123</f>
         <v>104</v>
@@ -19297,7 +19299,7 @@
       </c>
       <c r="E106" t="str">
         <f>Sheet1!H123</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F106" t="str">
         <f>Sheet1!I123</f>
@@ -19315,12 +19317,12 @@
         <f>Sheet1!L123</f>
         <v>No</v>
       </c>
-      <c r="J106">
-        <f>IF(Sheet1!M123="models-resource.com",1,IF(Sheet1!M123="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J106" t="str">
+        <f>IF(Sheet1!M123="models-resource.com","1|",IF(Sheet1!M123="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107">
         <f>Sheet1!C124</f>
         <v>105</v>
@@ -19335,7 +19337,7 @@
       </c>
       <c r="E107" t="str">
         <f>Sheet1!H124</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F107" t="str">
         <f>Sheet1!I124</f>
@@ -19353,12 +19355,12 @@
         <f>Sheet1!L124</f>
         <v>No</v>
       </c>
-      <c r="J107">
-        <f>IF(Sheet1!M124="models-resource.com",1,IF(Sheet1!M124="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J107" t="str">
+        <f>IF(Sheet1!M124="models-resource.com","1|",IF(Sheet1!M124="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108">
         <f>Sheet1!C125</f>
         <v>106</v>
@@ -19391,12 +19393,12 @@
         <f>Sheet1!L125</f>
         <v>No</v>
       </c>
-      <c r="J108">
-        <f>IF(Sheet1!M125="models-resource.com",1,IF(Sheet1!M125="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J108" t="str">
+        <f>IF(Sheet1!M125="models-resource.com","1|",IF(Sheet1!M125="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109">
         <f>Sheet1!C126</f>
         <v>107</v>
@@ -19411,7 +19413,7 @@
       </c>
       <c r="E109" t="str">
         <f>Sheet1!H126</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F109" t="str">
         <f>Sheet1!I126</f>
@@ -19429,12 +19431,12 @@
         <f>Sheet1!L126</f>
         <v>No</v>
       </c>
-      <c r="J109">
-        <f>IF(Sheet1!M126="models-resource.com",1,IF(Sheet1!M126="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J109" t="str">
+        <f>IF(Sheet1!M126="models-resource.com","1|",IF(Sheet1!M126="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110">
         <f>Sheet1!C127</f>
         <v>108</v>
@@ -19467,12 +19469,12 @@
         <f>Sheet1!L127</f>
         <v>No</v>
       </c>
-      <c r="J110">
-        <f>IF(Sheet1!M127="models-resource.com",1,IF(Sheet1!M127="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J110" t="str">
+        <f>IF(Sheet1!M127="models-resource.com","1|",IF(Sheet1!M127="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111">
         <f>Sheet1!C128</f>
         <v>109</v>
@@ -19505,12 +19507,12 @@
         <f>Sheet1!L128</f>
         <v>No</v>
       </c>
-      <c r="J111">
-        <f>IF(Sheet1!M128="models-resource.com",1,IF(Sheet1!M128="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J111" t="str">
+        <f>IF(Sheet1!M128="models-resource.com","1|",IF(Sheet1!M128="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112">
         <f>Sheet1!C129</f>
         <v>110</v>
@@ -19543,12 +19545,12 @@
         <f>Sheet1!L129</f>
         <v>No</v>
       </c>
-      <c r="J112">
-        <f>IF(Sheet1!M129="models-resource.com",1,IF(Sheet1!M129="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J112" t="str">
+        <f>IF(Sheet1!M129="models-resource.com","1|",IF(Sheet1!M129="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113">
         <f>Sheet1!C130</f>
         <v>111</v>
@@ -19581,12 +19583,12 @@
         <f>Sheet1!L130</f>
         <v>No</v>
       </c>
-      <c r="J113">
-        <f>IF(Sheet1!M130="models-resource.com",1,IF(Sheet1!M130="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J113" t="str">
+        <f>IF(Sheet1!M130="models-resource.com","1|",IF(Sheet1!M130="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114">
         <f>Sheet1!C131</f>
         <v>112</v>
@@ -19601,7 +19603,7 @@
       </c>
       <c r="E114" t="str">
         <f>Sheet1!H131</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F114" t="str">
         <f>Sheet1!I131</f>
@@ -19619,12 +19621,12 @@
         <f>Sheet1!L131</f>
         <v>No</v>
       </c>
-      <c r="J114">
-        <f>IF(Sheet1!M131="models-resource.com",1,IF(Sheet1!M131="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J114" t="str">
+        <f>IF(Sheet1!M131="models-resource.com","1|",IF(Sheet1!M131="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115">
         <f>Sheet1!C132</f>
         <v>113</v>
@@ -19657,12 +19659,12 @@
         <f>Sheet1!L132</f>
         <v>No</v>
       </c>
-      <c r="J115">
-        <f>IF(Sheet1!M132="models-resource.com",1,IF(Sheet1!M132="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J115" t="str">
+        <f>IF(Sheet1!M132="models-resource.com","1|",IF(Sheet1!M132="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116">
         <f>Sheet1!C133</f>
         <v>114</v>
@@ -19695,12 +19697,12 @@
         <f>Sheet1!L133</f>
         <v>No</v>
       </c>
-      <c r="J116">
-        <f>IF(Sheet1!M133="models-resource.com",1,IF(Sheet1!M133="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J116" t="str">
+        <f>IF(Sheet1!M133="models-resource.com","1|",IF(Sheet1!M133="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117">
         <f>Sheet1!C134</f>
         <v>115</v>
@@ -19733,12 +19735,12 @@
         <f>Sheet1!L134</f>
         <v>No</v>
       </c>
-      <c r="J117">
-        <f>IF(Sheet1!M134="models-resource.com",1,IF(Sheet1!M134="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J117" t="str">
+        <f>IF(Sheet1!M134="models-resource.com","1|",IF(Sheet1!M134="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118">
         <f>Sheet1!C135</f>
         <v>116</v>
@@ -19771,12 +19773,12 @@
         <f>Sheet1!L135</f>
         <v>No</v>
       </c>
-      <c r="J118">
-        <f>IF(Sheet1!M135="models-resource.com",1,IF(Sheet1!M135="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J118" t="str">
+        <f>IF(Sheet1!M135="models-resource.com","1|",IF(Sheet1!M135="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119">
         <f>Sheet1!C136</f>
         <v>117</v>
@@ -19809,12 +19811,12 @@
         <f>Sheet1!L136</f>
         <v>No</v>
       </c>
-      <c r="J119">
-        <f>IF(Sheet1!M136="models-resource.com",1,IF(Sheet1!M136="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J119" t="str">
+        <f>IF(Sheet1!M136="models-resource.com","1|",IF(Sheet1!M136="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120">
         <f>Sheet1!C137</f>
         <v>118</v>
@@ -19847,12 +19849,12 @@
         <f>Sheet1!L137</f>
         <v>No</v>
       </c>
-      <c r="J120">
-        <f>IF(Sheet1!M137="models-resource.com",1,IF(Sheet1!M137="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J120" t="str">
+        <f>IF(Sheet1!M137="models-resource.com","1|",IF(Sheet1!M137="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121">
         <f>Sheet1!C138</f>
         <v>119</v>
@@ -19886,11 +19888,11 @@
         <v>No</v>
       </c>
       <c r="J121" t="str">
-        <f>IF(Sheet1!M138="models-resource.com",1,IF(Sheet1!M138="roestudios.co.uk",2,"-"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+        <f>IF(Sheet1!M138="models-resource.com","1|",IF(Sheet1!M138="roestudios.co.uk","2|","-|"))</f>
+        <v>-|</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122">
         <f>Sheet1!C139</f>
         <v>120</v>
@@ -19905,7 +19907,7 @@
       </c>
       <c r="E122" t="str">
         <f>Sheet1!H139</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F122" t="str">
         <f>Sheet1!I139</f>
@@ -19923,12 +19925,12 @@
         <f>Sheet1!L139</f>
         <v>No</v>
       </c>
-      <c r="J122">
-        <f>IF(Sheet1!M139="models-resource.com",1,IF(Sheet1!M139="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J122" t="str">
+        <f>IF(Sheet1!M139="models-resource.com","1|",IF(Sheet1!M139="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123">
         <f>Sheet1!C140</f>
         <v>121</v>
@@ -19943,7 +19945,7 @@
       </c>
       <c r="E123" t="str">
         <f>Sheet1!H140</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F123" t="str">
         <f>Sheet1!I140</f>
@@ -19961,12 +19963,12 @@
         <f>Sheet1!L140</f>
         <v>No</v>
       </c>
-      <c r="J123">
-        <f>IF(Sheet1!M140="models-resource.com",1,IF(Sheet1!M140="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J123" t="str">
+        <f>IF(Sheet1!M140="models-resource.com","1|",IF(Sheet1!M140="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124">
         <f>Sheet1!C141</f>
         <v>122</v>
@@ -19981,7 +19983,7 @@
       </c>
       <c r="E124" t="str">
         <f>Sheet1!H141</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F124" t="str">
         <f>Sheet1!I141</f>
@@ -19999,12 +20001,12 @@
         <f>Sheet1!L141</f>
         <v>No</v>
       </c>
-      <c r="J124">
-        <f>IF(Sheet1!M141="models-resource.com",1,IF(Sheet1!M141="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J124" t="str">
+        <f>IF(Sheet1!M141="models-resource.com","1|",IF(Sheet1!M141="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125">
         <f>Sheet1!C142</f>
         <v>123</v>
@@ -20019,7 +20021,7 @@
       </c>
       <c r="E125" t="str">
         <f>Sheet1!H142</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F125" t="str">
         <f>Sheet1!I142</f>
@@ -20037,12 +20039,12 @@
         <f>Sheet1!L142</f>
         <v>No</v>
       </c>
-      <c r="J125">
-        <f>IF(Sheet1!M142="models-resource.com",1,IF(Sheet1!M142="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J125" t="str">
+        <f>IF(Sheet1!M142="models-resource.com","1|",IF(Sheet1!M142="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126">
         <f>Sheet1!C143</f>
         <v>124</v>
@@ -20075,12 +20077,12 @@
         <f>Sheet1!L143</f>
         <v>No</v>
       </c>
-      <c r="J126">
-        <f>IF(Sheet1!M143="models-resource.com",1,IF(Sheet1!M143="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J126" t="str">
+        <f>IF(Sheet1!M143="models-resource.com","1|",IF(Sheet1!M143="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127">
         <f>Sheet1!C144</f>
         <v>125</v>
@@ -20113,12 +20115,12 @@
         <f>Sheet1!L144</f>
         <v>No</v>
       </c>
-      <c r="J127">
-        <f>IF(Sheet1!M144="models-resource.com",1,IF(Sheet1!M144="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J127" t="str">
+        <f>IF(Sheet1!M144="models-resource.com","1|",IF(Sheet1!M144="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128">
         <f>Sheet1!C145</f>
         <v>126</v>
@@ -20151,12 +20153,12 @@
         <f>Sheet1!L145</f>
         <v>No</v>
       </c>
-      <c r="J128">
-        <f>IF(Sheet1!M145="models-resource.com",1,IF(Sheet1!M145="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J128" t="str">
+        <f>IF(Sheet1!M145="models-resource.com","1|",IF(Sheet1!M145="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129">
         <f>Sheet1!C146</f>
         <v>127</v>
@@ -20171,7 +20173,7 @@
       </c>
       <c r="E129" t="str">
         <f>Sheet1!H146</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F129" t="str">
         <f>Sheet1!I146</f>
@@ -20189,12 +20191,12 @@
         <f>Sheet1!L146</f>
         <v>No</v>
       </c>
-      <c r="J129">
-        <f>IF(Sheet1!M146="models-resource.com",1,IF(Sheet1!M146="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J129" t="str">
+        <f>IF(Sheet1!M146="models-resource.com","1|",IF(Sheet1!M146="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130">
         <f>Sheet1!C147</f>
         <v>128</v>
@@ -20227,12 +20229,12 @@
         <f>Sheet1!L147</f>
         <v>No</v>
       </c>
-      <c r="J130">
-        <f>IF(Sheet1!M147="models-resource.com",1,IF(Sheet1!M147="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J130" t="str">
+        <f>IF(Sheet1!M147="models-resource.com","1|",IF(Sheet1!M147="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131">
         <f>Sheet1!C148</f>
         <v>129</v>
@@ -20247,7 +20249,7 @@
       </c>
       <c r="E131" t="str">
         <f>Sheet1!H148</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F131" t="str">
         <f>Sheet1!I148</f>
@@ -20265,12 +20267,12 @@
         <f>Sheet1!L148</f>
         <v>No</v>
       </c>
-      <c r="J131">
-        <f>IF(Sheet1!M148="models-resource.com",1,IF(Sheet1!M148="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J131" t="str">
+        <f>IF(Sheet1!M148="models-resource.com","1|",IF(Sheet1!M148="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132">
         <f>Sheet1!C149</f>
         <v>130</v>
@@ -20285,7 +20287,7 @@
       </c>
       <c r="E132" t="str">
         <f>Sheet1!H149</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F132" t="str">
         <f>Sheet1!I149</f>
@@ -20303,12 +20305,12 @@
         <f>Sheet1!L149</f>
         <v>No</v>
       </c>
-      <c r="J132">
-        <f>IF(Sheet1!M149="models-resource.com",1,IF(Sheet1!M149="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J132" t="str">
+        <f>IF(Sheet1!M149="models-resource.com","1|",IF(Sheet1!M149="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133">
         <f>Sheet1!C150</f>
         <v>131</v>
@@ -20341,12 +20343,12 @@
         <f>Sheet1!L150</f>
         <v>No</v>
       </c>
-      <c r="J133">
-        <f>IF(Sheet1!M150="models-resource.com",1,IF(Sheet1!M150="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J133" t="str">
+        <f>IF(Sheet1!M150="models-resource.com","1|",IF(Sheet1!M150="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134">
         <f>Sheet1!C151</f>
         <v>132</v>
@@ -20361,7 +20363,7 @@
       </c>
       <c r="E134" t="str">
         <f>Sheet1!H151</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F134" t="str">
         <f>Sheet1!I151</f>
@@ -20379,12 +20381,12 @@
         <f>Sheet1!L151</f>
         <v>No</v>
       </c>
-      <c r="J134">
-        <f>IF(Sheet1!M151="models-resource.com",1,IF(Sheet1!M151="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J134" t="str">
+        <f>IF(Sheet1!M151="models-resource.com","1|",IF(Sheet1!M151="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135">
         <f>Sheet1!C152</f>
         <v>133</v>
@@ -20399,7 +20401,7 @@
       </c>
       <c r="E135" t="str">
         <f>Sheet1!H152</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F135" t="str">
         <f>Sheet1!I152</f>
@@ -20417,12 +20419,12 @@
         <f>Sheet1!L152</f>
         <v>No</v>
       </c>
-      <c r="J135">
-        <f>IF(Sheet1!M152="models-resource.com",1,IF(Sheet1!M152="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J135" t="str">
+        <f>IF(Sheet1!M152="models-resource.com","1|",IF(Sheet1!M152="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136">
         <f>Sheet1!C153</f>
         <v>134</v>
@@ -20437,7 +20439,7 @@
       </c>
       <c r="E136" t="str">
         <f>Sheet1!H153</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F136" t="str">
         <f>Sheet1!I153</f>
@@ -20455,12 +20457,12 @@
         <f>Sheet1!L153</f>
         <v>No</v>
       </c>
-      <c r="J136">
-        <f>IF(Sheet1!M153="models-resource.com",1,IF(Sheet1!M153="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J136" t="str">
+        <f>IF(Sheet1!M153="models-resource.com","1|",IF(Sheet1!M153="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137">
         <f>Sheet1!C154</f>
         <v>135</v>
@@ -20475,7 +20477,7 @@
       </c>
       <c r="E137" t="str">
         <f>Sheet1!H154</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F137" t="str">
         <f>Sheet1!I154</f>
@@ -20493,12 +20495,12 @@
         <f>Sheet1!L154</f>
         <v>No</v>
       </c>
-      <c r="J137">
-        <f>IF(Sheet1!M154="models-resource.com",1,IF(Sheet1!M154="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J137" t="str">
+        <f>IF(Sheet1!M154="models-resource.com","1|",IF(Sheet1!M154="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138">
         <f>Sheet1!C155</f>
         <v>136</v>
@@ -20513,7 +20515,7 @@
       </c>
       <c r="E138" t="str">
         <f>Sheet1!H155</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F138" t="str">
         <f>Sheet1!I155</f>
@@ -20531,12 +20533,12 @@
         <f>Sheet1!L155</f>
         <v>No</v>
       </c>
-      <c r="J138">
-        <f>IF(Sheet1!M155="models-resource.com",1,IF(Sheet1!M155="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J138" t="str">
+        <f>IF(Sheet1!M155="models-resource.com","1|",IF(Sheet1!M155="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139">
         <f>Sheet1!C156</f>
         <v>137</v>
@@ -20551,7 +20553,7 @@
       </c>
       <c r="E139" t="str">
         <f>Sheet1!H156</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F139" t="str">
         <f>Sheet1!I156</f>
@@ -20569,12 +20571,12 @@
         <f>Sheet1!L156</f>
         <v>No</v>
       </c>
-      <c r="J139">
-        <f>IF(Sheet1!M156="models-resource.com",1,IF(Sheet1!M156="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J139" t="str">
+        <f>IF(Sheet1!M156="models-resource.com","1|",IF(Sheet1!M156="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140">
         <f>Sheet1!C157</f>
         <v>138</v>
@@ -20589,7 +20591,7 @@
       </c>
       <c r="E140" t="str">
         <f>Sheet1!H157</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F140" t="str">
         <f>Sheet1!I157</f>
@@ -20607,12 +20609,12 @@
         <f>Sheet1!L157</f>
         <v>No</v>
       </c>
-      <c r="J140">
-        <f>IF(Sheet1!M157="models-resource.com",1,IF(Sheet1!M157="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J140" t="str">
+        <f>IF(Sheet1!M157="models-resource.com","1|",IF(Sheet1!M157="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141">
         <f>Sheet1!C158</f>
         <v>139</v>
@@ -20627,7 +20629,7 @@
       </c>
       <c r="E141" t="str">
         <f>Sheet1!H158</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F141" t="str">
         <f>Sheet1!I158</f>
@@ -20645,12 +20647,12 @@
         <f>Sheet1!L158</f>
         <v>No</v>
       </c>
-      <c r="J141">
-        <f>IF(Sheet1!M158="models-resource.com",1,IF(Sheet1!M158="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J141" t="str">
+        <f>IF(Sheet1!M158="models-resource.com","1|",IF(Sheet1!M158="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142">
         <f>Sheet1!C159</f>
         <v>140</v>
@@ -20683,12 +20685,12 @@
         <f>Sheet1!L159</f>
         <v>No</v>
       </c>
-      <c r="J142">
-        <f>IF(Sheet1!M159="models-resource.com",1,IF(Sheet1!M159="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J142" t="str">
+        <f>IF(Sheet1!M159="models-resource.com","1|",IF(Sheet1!M159="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143">
         <f>Sheet1!C160</f>
         <v>141</v>
@@ -20721,12 +20723,12 @@
         <f>Sheet1!L160</f>
         <v>No</v>
       </c>
-      <c r="J143">
-        <f>IF(Sheet1!M160="models-resource.com",1,IF(Sheet1!M160="roestudios.co.uk",2,"-"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J143" t="str">
+        <f>IF(Sheet1!M160="models-resource.com","1|",IF(Sheet1!M160="roestudios.co.uk","2|","-|"))</f>
+        <v>2|</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144">
         <f>Sheet1!C161</f>
         <v>142</v>
@@ -20741,7 +20743,7 @@
       </c>
       <c r="E144" t="str">
         <f>Sheet1!H161</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="F144" t="str">
         <f>Sheet1!I161</f>
@@ -20759,12 +20761,12 @@
         <f>Sheet1!L161</f>
         <v>No</v>
       </c>
-      <c r="J144">
-        <f>IF(Sheet1!M161="models-resource.com",1,IF(Sheet1!M161="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J144" t="str">
+        <f>IF(Sheet1!M161="models-resource.com","1|",IF(Sheet1!M161="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145">
         <f>Sheet1!C162</f>
         <v>143</v>
@@ -20797,12 +20799,12 @@
         <f>Sheet1!L162</f>
         <v>No</v>
       </c>
-      <c r="J145">
-        <f>IF(Sheet1!M162="models-resource.com",1,IF(Sheet1!M162="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J145" t="str">
+        <f>IF(Sheet1!M162="models-resource.com","1|",IF(Sheet1!M162="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146">
         <f>Sheet1!C163</f>
         <v>144</v>
@@ -20835,12 +20837,12 @@
         <f>Sheet1!L163</f>
         <v>No</v>
       </c>
-      <c r="J146">
-        <f>IF(Sheet1!M163="models-resource.com",1,IF(Sheet1!M163="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J146" t="str">
+        <f>IF(Sheet1!M163="models-resource.com","1|",IF(Sheet1!M163="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147">
         <f>Sheet1!C164</f>
         <v>145</v>
@@ -20873,12 +20875,12 @@
         <f>Sheet1!L164</f>
         <v>No</v>
       </c>
-      <c r="J147">
-        <f>IF(Sheet1!M164="models-resource.com",1,IF(Sheet1!M164="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J147" t="str">
+        <f>IF(Sheet1!M164="models-resource.com","1|",IF(Sheet1!M164="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148">
         <f>Sheet1!C165</f>
         <v>146</v>
@@ -20911,12 +20913,12 @@
         <f>Sheet1!L165</f>
         <v>No</v>
       </c>
-      <c r="J148">
-        <f>IF(Sheet1!M165="models-resource.com",1,IF(Sheet1!M165="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J148" t="str">
+        <f>IF(Sheet1!M165="models-resource.com","1|",IF(Sheet1!M165="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149">
         <f>Sheet1!C166</f>
         <v>147</v>
@@ -20949,12 +20951,12 @@
         <f>Sheet1!L166</f>
         <v>No</v>
       </c>
-      <c r="J149">
-        <f>IF(Sheet1!M166="models-resource.com",1,IF(Sheet1!M166="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J149" t="str">
+        <f>IF(Sheet1!M166="models-resource.com","1|",IF(Sheet1!M166="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150">
         <f>Sheet1!C167</f>
         <v>148</v>
@@ -20987,12 +20989,12 @@
         <f>Sheet1!L167</f>
         <v>No</v>
       </c>
-      <c r="J150">
-        <f>IF(Sheet1!M167="models-resource.com",1,IF(Sheet1!M167="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J150" t="str">
+        <f>IF(Sheet1!M167="models-resource.com","1|",IF(Sheet1!M167="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151">
         <f>Sheet1!C168</f>
         <v>149</v>
@@ -21025,12 +21027,12 @@
         <f>Sheet1!L168</f>
         <v>No</v>
       </c>
-      <c r="J151">
-        <f>IF(Sheet1!M168="models-resource.com",1,IF(Sheet1!M168="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J151" t="str">
+        <f>IF(Sheet1!M168="models-resource.com","1|",IF(Sheet1!M168="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152">
         <f>Sheet1!C169</f>
         <v>150</v>
@@ -21063,12 +21065,12 @@
         <f>Sheet1!L169</f>
         <v>No</v>
       </c>
-      <c r="J152">
-        <f>IF(Sheet1!M169="models-resource.com",1,IF(Sheet1!M169="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J152" t="str">
+        <f>IF(Sheet1!M169="models-resource.com","1|",IF(Sheet1!M169="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153">
         <f>Sheet1!C170</f>
         <v>151</v>
@@ -21101,9 +21103,9 @@
         <f>Sheet1!L170</f>
         <v>No</v>
       </c>
-      <c r="J153">
-        <f>IF(Sheet1!M170="models-resource.com",1,IF(Sheet1!M170="roestudios.co.uk",2,"-"))</f>
-        <v>1</v>
+      <c r="J153" t="str">
+        <f>IF(Sheet1!M170="models-resource.com","1|",IF(Sheet1!M170="roestudios.co.uk","2|","-|"))</f>
+        <v>1|</v>
       </c>
     </row>
   </sheetData>
